--- a/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.50629597678633</v>
+        <v>25.50629597678638</v>
       </c>
       <c r="C2">
-        <v>19.63109826673873</v>
+        <v>19.63109826673861</v>
       </c>
       <c r="D2">
-        <v>2.724027438511443</v>
+        <v>2.724027438511436</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.18977478318467</v>
+        <v>40.1897747831846</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>24.17371464084697</v>
+        <v>24.17371464084692</v>
       </c>
       <c r="I2">
         <v>11.03939688145622</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.3577359809431</v>
+        <v>18.35773598094311</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.67353445777997</v>
+        <v>23.67353445777994</v>
       </c>
       <c r="C3">
-        <v>18.20840881611989</v>
+        <v>18.20840881611986</v>
       </c>
       <c r="D3">
-        <v>2.795861354826145</v>
+        <v>2.79586135482614</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.87485543217676</v>
+        <v>37.87485543217677</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>23.18252384214278</v>
+        <v>23.18252384214281</v>
       </c>
       <c r="I3">
-        <v>10.37301553957124</v>
+        <v>10.37301553957125</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.00469257008342</v>
+        <v>17.00469257008337</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.49354816174661</v>
+        <v>22.49354816174649</v>
       </c>
       <c r="C4">
-        <v>17.29428479316958</v>
+        <v>17.29428479316941</v>
       </c>
       <c r="D4">
-        <v>2.839729479615519</v>
+        <v>2.839729479615655</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.4425129728895</v>
+        <v>36.44251297288948</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>22.58925469322375</v>
+        <v>22.5892546932238</v>
       </c>
       <c r="I4">
-        <v>9.975970538381176</v>
+        <v>9.97597053838118</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.13743229251718</v>
+        <v>16.13743229251715</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.99862793186295</v>
+        <v>21.99862793186281</v>
       </c>
       <c r="C5">
-        <v>16.91128851114587</v>
+        <v>16.91128851114564</v>
       </c>
       <c r="D5">
-        <v>2.857577155996873</v>
+        <v>2.857577155996872</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.85631104081926</v>
+        <v>35.85631104081944</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>22.35132673212767</v>
+        <v>22.35132673212787</v>
       </c>
       <c r="I5">
-        <v>9.813323132057297</v>
+        <v>9.813323132057237</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.77454691569188</v>
+        <v>15.77454691569179</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.91558836277206</v>
+        <v>21.91558836277205</v>
       </c>
       <c r="C6">
-        <v>16.84705144208727</v>
+        <v>16.84705144208718</v>
       </c>
       <c r="D6">
-        <v>2.860539849325528</v>
+        <v>2.860539849325188</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.75883156771913</v>
+        <v>35.75883156771905</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>22.31205064498731</v>
+        <v>22.31205064498722</v>
       </c>
       <c r="I6">
-        <v>9.786266839647109</v>
+        <v>9.786266839647105</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.71371000070741</v>
+        <v>15.71371000070739</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.48693085324038</v>
+        <v>22.48693085324034</v>
       </c>
       <c r="C7">
-        <v>17.28916236769556</v>
+        <v>17.28916236769563</v>
       </c>
       <c r="D7">
         <v>2.83997025806598</v>
@@ -614,22 +614,22 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.43461696153936</v>
+        <v>36.43461696153944</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22.5860303891383</v>
+        <v>22.58603038913838</v>
       </c>
       <c r="I7">
-        <v>9.973780350999904</v>
+        <v>9.97378035099991</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.13257700714109</v>
+        <v>16.13257700714103</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -646,28 +646,28 @@
         <v>19.14880380490046</v>
       </c>
       <c r="D8">
-        <v>2.748864834294704</v>
+        <v>2.748864834294506</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.39396226968443</v>
+        <v>39.39396226968439</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23.82874589326982</v>
+        <v>23.82874589326981</v>
       </c>
       <c r="I8">
-        <v>10.79364323570158</v>
+        <v>10.79364323570155</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.89859280551492</v>
+        <v>17.89859280551494</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.1714965934291</v>
+        <v>29.17149659342894</v>
       </c>
       <c r="C9">
-        <v>22.48752541012478</v>
+        <v>22.48752541012459</v>
       </c>
       <c r="D9">
-        <v>2.566737388607956</v>
+        <v>2.566737388608149</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>45.10907885342321</v>
+        <v>45.10907885342306</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>26.39107731781404</v>
+        <v>26.39107731781398</v>
       </c>
       <c r="I9">
-        <v>12.72774139907501</v>
+        <v>12.72774139907499</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.08722897932851</v>
+        <v>21.08722897932849</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.09146182834593</v>
+        <v>32.09146182834587</v>
       </c>
       <c r="C10">
-        <v>24.77507186523311</v>
+        <v>24.77507186523312</v>
       </c>
       <c r="D10">
-        <v>2.428282467848196</v>
+        <v>2.428282467848065</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>49.30534973400456</v>
+        <v>49.30534973400452</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>28.36113413048596</v>
+        <v>28.36113413048593</v>
       </c>
       <c r="I10">
-        <v>14.09843551710147</v>
+        <v>14.09843551710153</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.28665779359599</v>
+        <v>23.28665779359604</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.37695204338843</v>
+        <v>33.37695204338841</v>
       </c>
       <c r="C11">
-        <v>25.78582841771712</v>
+        <v>25.78582841771721</v>
       </c>
       <c r="D11">
-        <v>2.363613115684393</v>
+        <v>2.363613115684396</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>29.28092255346434</v>
+        <v>29.28092255346433</v>
       </c>
       <c r="I11">
         <v>14.70976707710439</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.85826245796997</v>
+        <v>33.85826245797004</v>
       </c>
       <c r="C12">
-        <v>26.16488811767153</v>
+        <v>26.16488811767163</v>
       </c>
       <c r="D12">
-        <v>2.338815515178968</v>
+        <v>2.338815515178975</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>52.08129906132234</v>
+        <v>52.08129906132242</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>29.6331831608692</v>
+        <v>29.63318316086921</v>
       </c>
       <c r="I12">
-        <v>14.93997528402683</v>
+        <v>14.93997528402685</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.62937813787283</v>
+        <v>24.62937813787287</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.75483509476182</v>
+        <v>33.75483509476189</v>
       </c>
       <c r="C13">
-        <v>26.08340425690633</v>
+        <v>26.08340425690643</v>
       </c>
       <c r="D13">
-        <v>2.344171018969171</v>
+        <v>2.344171018969043</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.91730051046081</v>
+        <v>51.91730051046086</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>29.55713061882254</v>
+        <v>29.55713061882253</v>
       </c>
       <c r="I13">
-        <v>14.89044482253279</v>
+        <v>14.89044482253284</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.55051383573929</v>
+        <v>24.55051383573939</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.41665517760842</v>
+        <v>33.41665517760835</v>
       </c>
       <c r="C14">
-        <v>25.81708403935729</v>
+        <v>25.81708403935741</v>
       </c>
       <c r="D14">
         <v>2.361579605824693</v>
@@ -880,16 +880,16 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>51.38235392032247</v>
+        <v>51.3823539203225</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>29.30982006902943</v>
+        <v>29.30982006902946</v>
       </c>
       <c r="I14">
-        <v>14.72872931235505</v>
+        <v>14.72872931235499</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.20881919962184</v>
+        <v>33.20881919962183</v>
       </c>
       <c r="C15">
         <v>25.65349414329321</v>
       </c>
       <c r="D15">
-        <v>2.372200521055622</v>
+        <v>2.372200521055556</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>51.0545719575684</v>
+        <v>51.05457195756844</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>29.15887030874336</v>
+        <v>29.15887030874337</v>
       </c>
       <c r="I15">
-        <v>14.62952123431749</v>
+        <v>14.62952123431751</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.13472056116984</v>
+        <v>24.13472056116985</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.00664594412061</v>
+        <v>32.00664594412059</v>
       </c>
       <c r="C16">
-        <v>24.70846475865945</v>
+        <v>24.7084647586593</v>
       </c>
       <c r="D16">
-        <v>2.432469399577451</v>
+        <v>2.432469399577448</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.17347573391363</v>
+        <v>49.17347573391335</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>28.30154279780538</v>
+        <v>28.30154279780523</v>
       </c>
       <c r="I16">
-        <v>14.05827580806268</v>
+        <v>14.0582758080626</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.22243399796615</v>
+        <v>23.22243399796606</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.25863362933255</v>
+        <v>31.2586336293326</v>
       </c>
       <c r="C17">
-        <v>24.1214681308497</v>
+        <v>24.12146813084968</v>
       </c>
       <c r="D17">
-        <v>2.468966566159648</v>
+        <v>2.468966566159652</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>48.06217580025248</v>
+        <v>48.06217580025245</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27.78199090777133</v>
+        <v>27.78199090777132</v>
       </c>
       <c r="I17">
-        <v>13.7050143296172</v>
+        <v>13.70501432961716</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.65692534570868</v>
+        <v>22.6569253457086</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.82431979772452</v>
+        <v>30.82431979772448</v>
       </c>
       <c r="C18">
-        <v>23.78099108151206</v>
+        <v>23.78099108151198</v>
       </c>
       <c r="D18">
-        <v>2.489804642495374</v>
+        <v>2.489804642495434</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>47.43929460311898</v>
+        <v>47.43929460311895</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27.48533646294367</v>
+        <v>27.48533646294366</v>
       </c>
       <c r="I18">
         <v>13.50064663774232</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.3293049024995</v>
+        <v>22.32930490249951</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.67654950689583</v>
+        <v>30.6765495068959</v>
       </c>
       <c r="C19">
-        <v>23.66520488506172</v>
+        <v>23.66520488506179</v>
       </c>
       <c r="D19">
-        <v>2.496835447335828</v>
+        <v>2.496835447335825</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>47.22834884290197</v>
+        <v>47.22834884290202</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>27.38525411916273</v>
       </c>
       <c r="I19">
-        <v>13.4312355927754</v>
+        <v>13.43123559277543</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.21795560455991</v>
+        <v>22.21795560455996</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.33867820647237</v>
+        <v>31.33867820647245</v>
       </c>
       <c r="C20">
-        <v>24.18424608106604</v>
+        <v>24.18424608106602</v>
       </c>
       <c r="D20">
-        <v>2.465097781167723</v>
+        <v>2.465097781167668</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>48.17743979904881</v>
+        <v>48.1774397990488</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27.83706915579021</v>
+        <v>27.83706915579019</v>
       </c>
       <c r="I20">
-        <v>13.74273875153609</v>
+        <v>13.74273875153615</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.71736402276663</v>
+        <v>22.71736402276662</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.51612943454774</v>
+        <v>33.51612943454802</v>
       </c>
       <c r="C21">
-        <v>25.89540359715509</v>
+        <v>25.89540359715535</v>
       </c>
       <c r="D21">
-        <v>2.356475239989305</v>
+        <v>2.356475239989106</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.53950145723538</v>
+        <v>51.5395014572358</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>29.38234839034472</v>
+        <v>29.38234839034483</v>
       </c>
       <c r="I21">
-        <v>14.77625993253066</v>
+        <v>14.77625993253076</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.36862552318758</v>
+        <v>24.36862552318767</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.90770560216065</v>
+        <v>34.90770560216057</v>
       </c>
       <c r="C22">
-        <v>26.99258893986529</v>
+        <v>26.99258893986524</v>
       </c>
       <c r="D22">
-        <v>2.283646191962745</v>
+        <v>2.283646191962676</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.75563622457722</v>
+        <v>53.75563622457691</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>30.4157418109415</v>
+        <v>30.41574181094136</v>
       </c>
       <c r="I22">
-        <v>15.44449264878117</v>
+        <v>15.44449264878116</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.43150444171024</v>
+        <v>25.43150444171017</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.16762087563726</v>
+        <v>34.16762087563737</v>
       </c>
       <c r="C23">
-        <v>26.40870723157635</v>
+        <v>26.40870723157629</v>
       </c>
       <c r="D23">
-        <v>2.32270926919936</v>
+        <v>2.322709269199236</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>52.57292270544616</v>
+        <v>52.5729227054463</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>29.86181738801463</v>
+        <v>29.86181738801472</v>
       </c>
       <c r="I23">
-        <v>15.08832798960223</v>
+        <v>15.08832798960224</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.86546695140659</v>
+        <v>24.86546695140651</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.30250340765747</v>
+        <v>31.30250340765741</v>
       </c>
       <c r="C24">
-        <v>24.15587357289773</v>
+        <v>24.15587357289779</v>
       </c>
       <c r="D24">
-        <v>2.46684730453789</v>
+        <v>2.466847304537968</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>48.12533031459627</v>
+        <v>48.12533031459631</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27.81216195681518</v>
+        <v>27.81216195681527</v>
       </c>
       <c r="I24">
-        <v>13.72568753890441</v>
+        <v>13.72568753890445</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.69004753761379</v>
+        <v>22.69004753761372</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.05428601235091</v>
+        <v>28.05428601235097</v>
       </c>
       <c r="C25">
-        <v>21.61516301652082</v>
+        <v>21.61516301652102</v>
       </c>
       <c r="D25">
-        <v>2.616619874558172</v>
+        <v>2.616619874558177</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.5717678805201</v>
+        <v>43.57176788052024</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>25.68366297362472</v>
+        <v>25.68366297362478</v>
       </c>
       <c r="I25">
         <v>12.20948375609382</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.25172574963396</v>
+        <v>20.25172574963404</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.50629597678638</v>
+        <v>25.50629597678633</v>
       </c>
       <c r="C2">
-        <v>19.63109826673861</v>
+        <v>19.63109826673873</v>
       </c>
       <c r="D2">
-        <v>2.724027438511436</v>
+        <v>2.724027438511443</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.1897747831846</v>
+        <v>40.18977478318467</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>24.17371464084692</v>
+        <v>24.17371464084697</v>
       </c>
       <c r="I2">
         <v>11.03939688145622</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.35773598094311</v>
+        <v>18.3577359809431</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.67353445777994</v>
+        <v>23.67353445777997</v>
       </c>
       <c r="C3">
-        <v>18.20840881611986</v>
+        <v>18.20840881611989</v>
       </c>
       <c r="D3">
-        <v>2.79586135482614</v>
+        <v>2.795861354826145</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.87485543217677</v>
+        <v>37.87485543217676</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>23.18252384214281</v>
+        <v>23.18252384214278</v>
       </c>
       <c r="I3">
-        <v>10.37301553957125</v>
+        <v>10.37301553957124</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.00469257008337</v>
+        <v>17.00469257008342</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.49354816174649</v>
+        <v>22.49354816174661</v>
       </c>
       <c r="C4">
-        <v>17.29428479316941</v>
+        <v>17.29428479316958</v>
       </c>
       <c r="D4">
-        <v>2.839729479615655</v>
+        <v>2.839729479615519</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.44251297288948</v>
+        <v>36.4425129728895</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>22.5892546932238</v>
+        <v>22.58925469322375</v>
       </c>
       <c r="I4">
-        <v>9.97597053838118</v>
+        <v>9.975970538381176</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.13743229251715</v>
+        <v>16.13743229251718</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.99862793186281</v>
+        <v>21.99862793186295</v>
       </c>
       <c r="C5">
-        <v>16.91128851114564</v>
+        <v>16.91128851114587</v>
       </c>
       <c r="D5">
-        <v>2.857577155996872</v>
+        <v>2.857577155996873</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.85631104081944</v>
+        <v>35.85631104081926</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>22.35132673212787</v>
+        <v>22.35132673212767</v>
       </c>
       <c r="I5">
-        <v>9.813323132057237</v>
+        <v>9.813323132057297</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.77454691569179</v>
+        <v>15.77454691569188</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.91558836277205</v>
+        <v>21.91558836277206</v>
       </c>
       <c r="C6">
-        <v>16.84705144208718</v>
+        <v>16.84705144208727</v>
       </c>
       <c r="D6">
-        <v>2.860539849325188</v>
+        <v>2.860539849325528</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.75883156771905</v>
+        <v>35.75883156771913</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>22.31205064498722</v>
+        <v>22.31205064498731</v>
       </c>
       <c r="I6">
-        <v>9.786266839647105</v>
+        <v>9.786266839647109</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.71371000070739</v>
+        <v>15.71371000070741</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.48693085324034</v>
+        <v>22.48693085324038</v>
       </c>
       <c r="C7">
-        <v>17.28916236769563</v>
+        <v>17.28916236769556</v>
       </c>
       <c r="D7">
         <v>2.83997025806598</v>
@@ -614,22 +614,22 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.43461696153944</v>
+        <v>36.43461696153936</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22.58603038913838</v>
+        <v>22.5860303891383</v>
       </c>
       <c r="I7">
-        <v>9.97378035099991</v>
+        <v>9.973780350999904</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.13257700714103</v>
+        <v>16.13257700714109</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -646,28 +646,28 @@
         <v>19.14880380490046</v>
       </c>
       <c r="D8">
-        <v>2.748864834294506</v>
+        <v>2.748864834294704</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.39396226968439</v>
+        <v>39.39396226968443</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23.82874589326981</v>
+        <v>23.82874589326982</v>
       </c>
       <c r="I8">
-        <v>10.79364323570155</v>
+        <v>10.79364323570158</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.89859280551494</v>
+        <v>17.89859280551492</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.17149659342894</v>
+        <v>29.1714965934291</v>
       </c>
       <c r="C9">
-        <v>22.48752541012459</v>
+        <v>22.48752541012478</v>
       </c>
       <c r="D9">
-        <v>2.566737388608149</v>
+        <v>2.566737388607956</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>45.10907885342306</v>
+        <v>45.10907885342321</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>26.39107731781398</v>
+        <v>26.39107731781404</v>
       </c>
       <c r="I9">
-        <v>12.72774139907499</v>
+        <v>12.72774139907501</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.08722897932849</v>
+        <v>21.08722897932851</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.09146182834587</v>
+        <v>32.09146182834593</v>
       </c>
       <c r="C10">
-        <v>24.77507186523312</v>
+        <v>24.77507186523311</v>
       </c>
       <c r="D10">
-        <v>2.428282467848065</v>
+        <v>2.428282467848196</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>49.30534973400452</v>
+        <v>49.30534973400456</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>28.36113413048593</v>
+        <v>28.36113413048596</v>
       </c>
       <c r="I10">
-        <v>14.09843551710153</v>
+        <v>14.09843551710147</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.28665779359604</v>
+        <v>23.28665779359599</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.37695204338841</v>
+        <v>33.37695204338843</v>
       </c>
       <c r="C11">
-        <v>25.78582841771721</v>
+        <v>25.78582841771712</v>
       </c>
       <c r="D11">
-        <v>2.363613115684396</v>
+        <v>2.363613115684393</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>29.28092255346433</v>
+        <v>29.28092255346434</v>
       </c>
       <c r="I11">
         <v>14.70976707710439</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.85826245797004</v>
+        <v>33.85826245796997</v>
       </c>
       <c r="C12">
-        <v>26.16488811767163</v>
+        <v>26.16488811767153</v>
       </c>
       <c r="D12">
-        <v>2.338815515178975</v>
+        <v>2.338815515178968</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>52.08129906132242</v>
+        <v>52.08129906132234</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>29.63318316086921</v>
+        <v>29.6331831608692</v>
       </c>
       <c r="I12">
-        <v>14.93997528402685</v>
+        <v>14.93997528402683</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.62937813787287</v>
+        <v>24.62937813787283</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.75483509476189</v>
+        <v>33.75483509476182</v>
       </c>
       <c r="C13">
-        <v>26.08340425690643</v>
+        <v>26.08340425690633</v>
       </c>
       <c r="D13">
-        <v>2.344171018969043</v>
+        <v>2.344171018969171</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.91730051046086</v>
+        <v>51.91730051046081</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>29.55713061882253</v>
+        <v>29.55713061882254</v>
       </c>
       <c r="I13">
-        <v>14.89044482253284</v>
+        <v>14.89044482253279</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.55051383573939</v>
+        <v>24.55051383573929</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.41665517760835</v>
+        <v>33.41665517760842</v>
       </c>
       <c r="C14">
-        <v>25.81708403935741</v>
+        <v>25.81708403935729</v>
       </c>
       <c r="D14">
         <v>2.361579605824693</v>
@@ -880,16 +880,16 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>51.3823539203225</v>
+        <v>51.38235392032247</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>29.30982006902946</v>
+        <v>29.30982006902943</v>
       </c>
       <c r="I14">
-        <v>14.72872931235499</v>
+        <v>14.72872931235505</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.20881919962183</v>
+        <v>33.20881919962184</v>
       </c>
       <c r="C15">
         <v>25.65349414329321</v>
       </c>
       <c r="D15">
-        <v>2.372200521055556</v>
+        <v>2.372200521055622</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>51.05457195756844</v>
+        <v>51.0545719575684</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>29.15887030874337</v>
+        <v>29.15887030874336</v>
       </c>
       <c r="I15">
-        <v>14.62952123431751</v>
+        <v>14.62952123431749</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.13472056116985</v>
+        <v>24.13472056116984</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.00664594412059</v>
+        <v>32.00664594412061</v>
       </c>
       <c r="C16">
-        <v>24.7084647586593</v>
+        <v>24.70846475865945</v>
       </c>
       <c r="D16">
-        <v>2.432469399577448</v>
+        <v>2.432469399577451</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.17347573391335</v>
+        <v>49.17347573391363</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>28.30154279780523</v>
+        <v>28.30154279780538</v>
       </c>
       <c r="I16">
-        <v>14.0582758080626</v>
+        <v>14.05827580806268</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.22243399796606</v>
+        <v>23.22243399796615</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.2586336293326</v>
+        <v>31.25863362933255</v>
       </c>
       <c r="C17">
-        <v>24.12146813084968</v>
+        <v>24.1214681308497</v>
       </c>
       <c r="D17">
-        <v>2.468966566159652</v>
+        <v>2.468966566159648</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>48.06217580025245</v>
+        <v>48.06217580025248</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27.78199090777132</v>
+        <v>27.78199090777133</v>
       </c>
       <c r="I17">
-        <v>13.70501432961716</v>
+        <v>13.7050143296172</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.6569253457086</v>
+        <v>22.65692534570868</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.82431979772448</v>
+        <v>30.82431979772452</v>
       </c>
       <c r="C18">
-        <v>23.78099108151198</v>
+        <v>23.78099108151206</v>
       </c>
       <c r="D18">
-        <v>2.489804642495434</v>
+        <v>2.489804642495374</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>47.43929460311895</v>
+        <v>47.43929460311898</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27.48533646294366</v>
+        <v>27.48533646294367</v>
       </c>
       <c r="I18">
         <v>13.50064663774232</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.32930490249951</v>
+        <v>22.3293049024995</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.6765495068959</v>
+        <v>30.67654950689583</v>
       </c>
       <c r="C19">
-        <v>23.66520488506179</v>
+        <v>23.66520488506172</v>
       </c>
       <c r="D19">
-        <v>2.496835447335825</v>
+        <v>2.496835447335828</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>47.22834884290202</v>
+        <v>47.22834884290197</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>27.38525411916273</v>
       </c>
       <c r="I19">
-        <v>13.43123559277543</v>
+        <v>13.4312355927754</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.21795560455996</v>
+        <v>22.21795560455991</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.33867820647245</v>
+        <v>31.33867820647237</v>
       </c>
       <c r="C20">
-        <v>24.18424608106602</v>
+        <v>24.18424608106604</v>
       </c>
       <c r="D20">
-        <v>2.465097781167668</v>
+        <v>2.465097781167723</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>48.1774397990488</v>
+        <v>48.17743979904881</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27.83706915579019</v>
+        <v>27.83706915579021</v>
       </c>
       <c r="I20">
-        <v>13.74273875153615</v>
+        <v>13.74273875153609</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.71736402276662</v>
+        <v>22.71736402276663</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.51612943454802</v>
+        <v>33.51612943454774</v>
       </c>
       <c r="C21">
-        <v>25.89540359715535</v>
+        <v>25.89540359715509</v>
       </c>
       <c r="D21">
-        <v>2.356475239989106</v>
+        <v>2.356475239989305</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.5395014572358</v>
+        <v>51.53950145723538</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>29.38234839034483</v>
+        <v>29.38234839034472</v>
       </c>
       <c r="I21">
-        <v>14.77625993253076</v>
+        <v>14.77625993253066</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.36862552318767</v>
+        <v>24.36862552318758</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.90770560216057</v>
+        <v>34.90770560216065</v>
       </c>
       <c r="C22">
-        <v>26.99258893986524</v>
+        <v>26.99258893986529</v>
       </c>
       <c r="D22">
-        <v>2.283646191962676</v>
+        <v>2.283646191962745</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.75563622457691</v>
+        <v>53.75563622457722</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>30.41574181094136</v>
+        <v>30.4157418109415</v>
       </c>
       <c r="I22">
-        <v>15.44449264878116</v>
+        <v>15.44449264878117</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.43150444171017</v>
+        <v>25.43150444171024</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.16762087563737</v>
+        <v>34.16762087563726</v>
       </c>
       <c r="C23">
-        <v>26.40870723157629</v>
+        <v>26.40870723157635</v>
       </c>
       <c r="D23">
-        <v>2.322709269199236</v>
+        <v>2.32270926919936</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>52.5729227054463</v>
+        <v>52.57292270544616</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>29.86181738801472</v>
+        <v>29.86181738801463</v>
       </c>
       <c r="I23">
-        <v>15.08832798960224</v>
+        <v>15.08832798960223</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.86546695140651</v>
+        <v>24.86546695140659</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.30250340765741</v>
+        <v>31.30250340765747</v>
       </c>
       <c r="C24">
-        <v>24.15587357289779</v>
+        <v>24.15587357289773</v>
       </c>
       <c r="D24">
-        <v>2.466847304537968</v>
+        <v>2.46684730453789</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>48.12533031459631</v>
+        <v>48.12533031459627</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27.81216195681527</v>
+        <v>27.81216195681518</v>
       </c>
       <c r="I24">
-        <v>13.72568753890445</v>
+        <v>13.72568753890441</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.69004753761372</v>
+        <v>22.69004753761379</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.05428601235097</v>
+        <v>28.05428601235091</v>
       </c>
       <c r="C25">
-        <v>21.61516301652102</v>
+        <v>21.61516301652082</v>
       </c>
       <c r="D25">
-        <v>2.616619874558177</v>
+        <v>2.616619874558172</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.57176788052024</v>
+        <v>43.5717678805201</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>25.68366297362478</v>
+        <v>25.68366297362472</v>
       </c>
       <c r="I25">
         <v>12.20948375609382</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.25172574963404</v>
+        <v>20.25172574963396</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.50629597678633</v>
+        <v>25.3883317699244</v>
       </c>
       <c r="C2">
-        <v>19.63109826673873</v>
+        <v>19.48929186200165</v>
       </c>
       <c r="D2">
-        <v>2.724027438511443</v>
+        <v>2.877404125820023</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.18977478318467</v>
+        <v>40.28329312214906</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.043146101888669</v>
       </c>
       <c r="H2">
-        <v>24.17371464084697</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.03939688145622</v>
+        <v>24.31505613625007</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.02457440560413</v>
       </c>
       <c r="K2">
-        <v>18.3577359809431</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>18.31262217706156</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.67353445777997</v>
+        <v>23.5614470501015</v>
       </c>
       <c r="C3">
-        <v>18.20840881611989</v>
+        <v>18.07214259651682</v>
       </c>
       <c r="D3">
-        <v>2.795861354826145</v>
+        <v>2.949815517738417</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.87485543217676</v>
+        <v>38.00936928051679</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.056568139101036</v>
       </c>
       <c r="H3">
-        <v>23.18252384214278</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>10.37301553957124</v>
+        <v>23.35036337179229</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.35355924574363</v>
       </c>
       <c r="K3">
-        <v>17.00469257008342</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>16.96314725766431</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.49354816174661</v>
+        <v>22.38519883732747</v>
       </c>
       <c r="C4">
-        <v>17.29428479316958</v>
+        <v>17.16150347833724</v>
       </c>
       <c r="D4">
-        <v>2.839729479615519</v>
+        <v>2.994052283487774</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.4425129728895</v>
+        <v>36.60455252877814</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.064933464730679</v>
       </c>
       <c r="H4">
-        <v>22.58925469322375</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9.975970538381176</v>
+        <v>22.77424801398318</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.957275631641307</v>
       </c>
       <c r="K4">
-        <v>16.13743229251718</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>16.09808443979571</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.99862793186295</v>
+        <v>21.89183978019853</v>
       </c>
       <c r="C5">
-        <v>16.91128851114587</v>
+        <v>16.77995200266682</v>
       </c>
       <c r="D5">
-        <v>2.857577155996873</v>
+        <v>3.012053881084744</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.85631104081926</v>
+        <v>36.03016909970265</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.068378534151949</v>
       </c>
       <c r="H5">
-        <v>22.35132673212767</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>9.813323132057297</v>
+        <v>22.5435186378128</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.79492297130534</v>
       </c>
       <c r="K5">
-        <v>15.77454691569188</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>15.73609944000557</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.91558836277206</v>
+        <v>21.80906188221479</v>
       </c>
       <c r="C6">
-        <v>16.84705144208727</v>
+        <v>16.71595643558969</v>
       </c>
       <c r="D6">
-        <v>2.860539849325528</v>
+        <v>3.015042360129234</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.75883156771913</v>
+        <v>35.93468855861035</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.068952901814661</v>
       </c>
       <c r="H6">
-        <v>22.31205064498731</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>9.786266839647109</v>
+        <v>22.50544996181401</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.767914725817329</v>
       </c>
       <c r="K6">
-        <v>15.71371000070741</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>15.67541241450435</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.48693085324038</v>
+        <v>22.37860242311926</v>
       </c>
       <c r="C7">
-        <v>17.28916236769556</v>
+        <v>17.15640043342388</v>
       </c>
       <c r="D7">
-        <v>2.83997025806598</v>
+        <v>2.994295122622533</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.43461696153936</v>
+        <v>36.59681346251838</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.064979773711794</v>
       </c>
       <c r="H7">
-        <v>22.5860303891383</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>9.973780350999904</v>
+        <v>22.77111997070746</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.955089480218323</v>
       </c>
       <c r="K7">
-        <v>16.13257700714109</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>16.09324127341055</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.88550323810854</v>
+        <v>24.7695416499857</v>
       </c>
       <c r="C8">
-        <v>19.14880380490046</v>
+        <v>19.00889278386507</v>
       </c>
       <c r="D8">
-        <v>2.748864834294704</v>
+        <v>2.902437825153124</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.39396226968443</v>
+        <v>39.50113492927404</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.047751380047208</v>
       </c>
       <c r="H8">
-        <v>23.82874589326982</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>10.79364323570158</v>
+        <v>23.97903336972267</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.77331683776917</v>
       </c>
       <c r="K8">
-        <v>17.89859280551492</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>17.85471023361792</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.1714965934291</v>
+        <v>29.0413437345248</v>
       </c>
       <c r="C9">
-        <v>22.48752541012478</v>
+        <v>22.33405819594546</v>
       </c>
       <c r="D9">
-        <v>2.566737388607956</v>
+        <v>2.71893732884877</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>45.10907885342321</v>
+        <v>45.12629970446568</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.014698456283416</v>
       </c>
       <c r="H9">
-        <v>26.39107731781404</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>12.72774139907501</v>
+        <v>26.48051911753661</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.70831187251274</v>
       </c>
       <c r="K9">
-        <v>21.08722897932851</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>21.03430016898957</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.09146182834593</v>
+        <v>31.95095734925749</v>
       </c>
       <c r="C10">
-        <v>24.77507186523311</v>
+        <v>24.61159193453053</v>
       </c>
       <c r="D10">
-        <v>2.428282467848196</v>
+        <v>2.579513324434022</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>49.30534973400456</v>
+        <v>49.229152838308</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.990448760416763</v>
       </c>
       <c r="H10">
-        <v>28.36113413048596</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>14.09843551710147</v>
+        <v>28.4105583318382</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>14.07473048279642</v>
       </c>
       <c r="K10">
-        <v>23.28665779359599</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>23.22668425513877</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.37695204338843</v>
+        <v>33.2316428293864</v>
       </c>
       <c r="C11">
-        <v>25.78582841771712</v>
+        <v>25.61768244728449</v>
       </c>
       <c r="D11">
-        <v>2.363613115684393</v>
+        <v>2.514403063777872</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>51.31967947499355</v>
+        <v>51.19892927826351</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.97931139324457</v>
       </c>
       <c r="H11">
-        <v>29.28092255346434</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>14.70976707710439</v>
+        <v>29.31309177675118</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.68396815115095</v>
       </c>
       <c r="K11">
-        <v>24.26265670061156</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>24.19929359117128</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.85826245796997</v>
+        <v>33.71110797960429</v>
       </c>
       <c r="C12">
-        <v>26.16488811767153</v>
+        <v>25.9949482251031</v>
       </c>
       <c r="D12">
-        <v>2.338815515178968</v>
+        <v>2.489437301961059</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>52.08129906132234</v>
+        <v>51.95252560453559</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.975067146034741</v>
       </c>
       <c r="H12">
-        <v>29.6331831608692</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>14.93997528402683</v>
+        <v>29.65894181121519</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>14.91335419491782</v>
       </c>
       <c r="K12">
-        <v>24.62937813787283</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>24.56469377326082</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.75483509476182</v>
+        <v>33.60807939977244</v>
       </c>
       <c r="C13">
-        <v>26.08340425690633</v>
+        <v>25.91385212485128</v>
       </c>
       <c r="D13">
-        <v>2.344171018969171</v>
+        <v>2.494829100606102</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.91730051046081</v>
+        <v>51.79024805891251</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.975982618206329</v>
       </c>
       <c r="H13">
-        <v>29.55713061882254</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>14.89044482253279</v>
+        <v>29.58426468206486</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>14.8640022508467</v>
       </c>
       <c r="K13">
-        <v>24.55051383573929</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>24.48611591446667</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.41665517760842</v>
+        <v>33.27119474973436</v>
       </c>
       <c r="C14">
-        <v>25.81708403935729</v>
+        <v>25.64879109626384</v>
       </c>
       <c r="D14">
-        <v>2.361579605824693</v>
+        <v>2.512355752003234</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>51.38235392032247</v>
+        <v>51.26094044450242</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.978962826731504</v>
       </c>
       <c r="H14">
-        <v>29.30982006902943</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>14.72872931235505</v>
+        <v>29.34145951209497</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>14.70286338561032</v>
       </c>
       <c r="K14">
-        <v>24.29288035656029</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>24.22940937696307</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.20881919962184</v>
+        <v>33.06414838998031</v>
       </c>
       <c r="C15">
-        <v>25.65349414329321</v>
+        <v>25.48596859881148</v>
       </c>
       <c r="D15">
-        <v>2.372200521055622</v>
+        <v>2.52304878446368</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>51.0545719575684</v>
+        <v>50.93663367666389</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.980784425621523</v>
       </c>
       <c r="H15">
-        <v>29.15887030874336</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>14.62952123431749</v>
+        <v>29.19328501961601</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>14.60400443975755</v>
       </c>
       <c r="K15">
-        <v>24.13472056116984</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>24.0718120683349</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.00664594412061</v>
+        <v>31.86645257400266</v>
       </c>
       <c r="C16">
-        <v>24.70846475865945</v>
+        <v>24.54528664889387</v>
       </c>
       <c r="D16">
-        <v>2.432469399577451</v>
+        <v>2.583728979214746</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.17347573391363</v>
+        <v>49.10720522720337</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.991173542736267</v>
       </c>
       <c r="H16">
-        <v>28.30154279780538</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>14.05827580806268</v>
+        <v>28.35211278345188</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>14.0347039956152</v>
       </c>
       <c r="K16">
-        <v>23.22243399796615</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>23.16267737279146</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.25863362933255</v>
+        <v>31.12115479355565</v>
       </c>
       <c r="C17">
-        <v>24.1214681308497</v>
+        <v>23.9609215572657</v>
       </c>
       <c r="D17">
-        <v>2.468966566159648</v>
+        <v>2.620477765018163</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>48.06217580025248</v>
+        <v>48.03870162750839</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.997512216180346</v>
       </c>
       <c r="H17">
-        <v>27.78199090777133</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>13.7050143296172</v>
+        <v>27.84270742385136</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13.68259261927932</v>
       </c>
       <c r="K17">
-        <v>22.65692534570868</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>22.59904792632619</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.82431979772452</v>
+        <v>30.68839414259226</v>
       </c>
       <c r="C18">
-        <v>23.78099108151206</v>
+        <v>23.6219484284404</v>
       </c>
       <c r="D18">
-        <v>2.489804642495374</v>
+        <v>2.641460654482375</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>47.43929460311898</v>
+        <v>47.42415377728653</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.001148871496912</v>
       </c>
       <c r="H18">
-        <v>27.48533646294367</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>13.50064663774232</v>
+        <v>27.55197947151461</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.47887299169248</v>
       </c>
       <c r="K18">
-        <v>22.3293049024995</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>22.27249176396952</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.67654950689583</v>
+        <v>30.54114865478286</v>
       </c>
       <c r="C19">
-        <v>23.66520488506172</v>
+        <v>23.50667006450099</v>
       </c>
       <c r="D19">
-        <v>2.496835447335828</v>
+        <v>2.648540533960293</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>47.22834884290197</v>
+        <v>47.21605845170316</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.002378920798031</v>
       </c>
       <c r="H19">
-        <v>27.38525411916273</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>13.4312355927754</v>
+        <v>27.45391957234897</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.40967926644512</v>
       </c>
       <c r="K19">
-        <v>22.21795560455991</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>22.16150025588287</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.33867820647237</v>
+        <v>31.20091132536502</v>
       </c>
       <c r="C20">
-        <v>24.18424608106604</v>
+        <v>24.02342044765943</v>
       </c>
       <c r="D20">
-        <v>2.465097781167723</v>
+        <v>2.616582192564842</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>48.17743979904881</v>
+        <v>48.15243678619193</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.996838480597979</v>
       </c>
       <c r="H20">
-        <v>27.83706915579021</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>13.74273875153609</v>
+        <v>27.89669626696185</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>13.72019605231243</v>
       </c>
       <c r="K20">
-        <v>22.71736402276663</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>22.65928834666631</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.51612943454774</v>
+        <v>33.37028936695283</v>
       </c>
       <c r="C21">
-        <v>25.89540359715509</v>
+        <v>25.7267416344978</v>
       </c>
       <c r="D21">
-        <v>2.356475239989305</v>
+        <v>2.507216752523133</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.53950145723538</v>
+        <v>51.41642735331043</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.978088296413173</v>
       </c>
       <c r="H21">
-        <v>29.38234839034472</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>14.77625993253066</v>
+        <v>29.41266127687083</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>14.75022549858575</v>
       </c>
       <c r="K21">
-        <v>24.36862552318758</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>24.30488340554</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.90770560216065</v>
+        <v>34.75643078725921</v>
       </c>
       <c r="C22">
-        <v>26.99258893986529</v>
+        <v>26.81864073858222</v>
       </c>
       <c r="D22">
-        <v>2.283646191962745</v>
+        <v>2.433894179242657</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.75563622457722</v>
+        <v>53.60947799240498</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.965670905899799</v>
       </c>
       <c r="H22">
-        <v>30.4157418109415</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>15.44449264878117</v>
+        <v>30.42760532746553</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>15.41600026440809</v>
       </c>
       <c r="K22">
-        <v>25.43150444171024</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>25.3638316187415</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.16762087563726</v>
+        <v>34.01926600759568</v>
       </c>
       <c r="C23">
-        <v>26.40870723157635</v>
+        <v>26.23759991369764</v>
       </c>
       <c r="D23">
-        <v>2.32270926919936</v>
+        <v>2.473221944256054</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>52.57292270544616</v>
+        <v>52.43901072063484</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.972317626972743</v>
       </c>
       <c r="H23">
-        <v>29.86181738801463</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>15.08832798960223</v>
+        <v>29.8834687790195</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>15.06116676347087</v>
       </c>
       <c r="K23">
-        <v>24.86546695140659</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>24.79991736348156</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.30250340765747</v>
+        <v>31.16486677417249</v>
       </c>
       <c r="C24">
-        <v>24.15587357289773</v>
+        <v>23.99517412965455</v>
       </c>
       <c r="D24">
-        <v>2.46684730453789</v>
+        <v>2.618343825982964</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>48.12533031459627</v>
+        <v>48.1010179715771</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.997143099082839</v>
       </c>
       <c r="H24">
-        <v>27.81216195681518</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>13.72568753890441</v>
+        <v>27.87228129702066</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.70319957915892</v>
       </c>
       <c r="K24">
-        <v>22.69004753761379</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>22.63206154275401</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.05428601235091</v>
+        <v>27.92792671381313</v>
       </c>
       <c r="C25">
-        <v>21.61516301652082</v>
+        <v>21.46534419535213</v>
       </c>
       <c r="D25">
-        <v>2.616619874558172</v>
+        <v>2.769182183078639</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.5717678805201</v>
+        <v>43.61152409201678</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.023600576363612</v>
       </c>
       <c r="H25">
-        <v>25.68366297362472</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>12.20948375609382</v>
+        <v>25.78873668474133</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.19153847759482</v>
       </c>
       <c r="K25">
-        <v>20.25172574963396</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>20.2012867622055</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.3883317699244</v>
+        <v>25.35090401983647</v>
       </c>
       <c r="C2">
-        <v>19.48929186200165</v>
+        <v>12.88015629214619</v>
       </c>
       <c r="D2">
-        <v>2.877404125820023</v>
+        <v>4.977636219964456</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.28329312214906</v>
+        <v>38.58265873337867</v>
       </c>
       <c r="G2">
-        <v>2.043146101888669</v>
+        <v>2.081353175460631</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.31505613625007</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>11.02457440560413</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.25502393913632</v>
       </c>
       <c r="L2">
-        <v>18.31262217706156</v>
+        <v>8.099213063717144</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>14.31337477723086</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.5614470501015</v>
+        <v>23.70940808420226</v>
       </c>
       <c r="C3">
-        <v>18.07214259651682</v>
+        <v>12.02008346433749</v>
       </c>
       <c r="D3">
-        <v>2.949815517738417</v>
+        <v>5.048764148707865</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.00936928051679</v>
+        <v>36.82570396181148</v>
       </c>
       <c r="G3">
-        <v>2.056568139101036</v>
+        <v>2.093374285567473</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.35036337179229</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.35355924574363</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.7873255214135</v>
       </c>
       <c r="L3">
-        <v>16.96314725766431</v>
+        <v>7.809050679604335</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>14.46794832743354</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.38519883732747</v>
+        <v>22.6667512560183</v>
       </c>
       <c r="C4">
-        <v>17.16150347833724</v>
+        <v>11.4676959322192</v>
       </c>
       <c r="D4">
-        <v>2.994052283487774</v>
+        <v>5.09471913515667</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.60455252877814</v>
+        <v>35.74884541917542</v>
       </c>
       <c r="G4">
-        <v>2.064933464730679</v>
+        <v>2.100903533135705</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.77424801398318</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>9.957275631641307</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.84241228205409</v>
       </c>
       <c r="L4">
-        <v>16.09808443979571</v>
+        <v>7.632704843709369</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>14.56836620051041</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.89183978019853</v>
+        <v>22.23326729531794</v>
       </c>
       <c r="C5">
-        <v>16.77995200266682</v>
+        <v>11.23638763321835</v>
       </c>
       <c r="D5">
-        <v>3.012053881084744</v>
+        <v>5.113990373814951</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.03016909970265</v>
+        <v>35.31082952872918</v>
       </c>
       <c r="G5">
-        <v>2.068378534151949</v>
+        <v>2.104012433701243</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.5435186378128</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>9.79492297130534</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.4461535259933</v>
       </c>
       <c r="L5">
-        <v>15.73609944000557</v>
+        <v>7.561355478461584</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>14.61061075097449</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.80906188221479</v>
+        <v>22.16077491280834</v>
       </c>
       <c r="C6">
-        <v>16.71595643558969</v>
+        <v>11.19760180369867</v>
       </c>
       <c r="D6">
-        <v>3.015042360129234</v>
+        <v>5.117222442338294</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.93468855861035</v>
+        <v>35.23815768198214</v>
       </c>
       <c r="G6">
-        <v>2.068952901814661</v>
+        <v>2.104531214508163</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.50544996181401</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>9.767914725817329</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.37967318045692</v>
       </c>
       <c r="L6">
-        <v>15.67541241450435</v>
+        <v>7.549540776759279</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>14.61770370436721</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.37860242311926</v>
+        <v>22.6609396625723</v>
       </c>
       <c r="C7">
-        <v>17.15640043342388</v>
+        <v>11.46460166829445</v>
       </c>
       <c r="D7">
-        <v>2.994295122622533</v>
+        <v>5.094976865967076</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.59681346251838</v>
+        <v>35.74293439485051</v>
       </c>
       <c r="G7">
-        <v>2.064979773711794</v>
+        <v>2.100945291900244</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.77111997070746</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>9.955089480218323</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.83711379322761</v>
       </c>
       <c r="L7">
-        <v>16.09324127341055</v>
+        <v>7.63174044284225</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>14.56893064250359</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.7695416499857</v>
+        <v>24.79219433130798</v>
       </c>
       <c r="C8">
-        <v>19.00889278386507</v>
+        <v>12.58858314393994</v>
       </c>
       <c r="D8">
-        <v>2.902437825153124</v>
+        <v>5.001668013114513</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.50113492927404</v>
+        <v>37.97663279891128</v>
       </c>
       <c r="G8">
-        <v>2.047751380047208</v>
+        <v>2.085469427436689</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.97903336972267</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>10.77331683776917</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.75791337373394</v>
       </c>
       <c r="L8">
-        <v>17.85471023361792</v>
+        <v>7.998819261917037</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>14.36548846940018</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.0413437345248</v>
+        <v>28.89424666168245</v>
       </c>
       <c r="C9">
-        <v>22.33405819594546</v>
+        <v>14.60522607660813</v>
       </c>
       <c r="D9">
-        <v>2.71893732884877</v>
+        <v>4.83843748752578</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>45.12629970446568</v>
+        <v>42.3627625827428</v>
       </c>
       <c r="G9">
-        <v>2.014698456283416</v>
+        <v>2.056126633994324</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.48051911753661</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12.70831187251274</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.18763759391545</v>
       </c>
       <c r="L9">
-        <v>21.03430016898957</v>
+        <v>8.731175188704887</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>14.0135217055723</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.95095734925749</v>
+        <v>31.7724724199719</v>
       </c>
       <c r="C10">
-        <v>24.61159193453053</v>
+        <v>15.98151729483508</v>
       </c>
       <c r="D10">
-        <v>2.579513324434022</v>
+        <v>4.733412154175968</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>49.229152838308</v>
+        <v>45.58477345489486</v>
       </c>
       <c r="G10">
-        <v>1.990448760416763</v>
+        <v>2.034911584296724</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.4105583318382</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>14.07473048279642</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.51791708294488</v>
       </c>
       <c r="L10">
-        <v>23.22668425513877</v>
+        <v>9.275439019586299</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>13.78901160352054</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.2316428293864</v>
+        <v>33.03892473709761</v>
       </c>
       <c r="C11">
-        <v>25.61768244728449</v>
+        <v>16.5872144456549</v>
       </c>
       <c r="D11">
-        <v>2.514403063777872</v>
+        <v>4.689715965679055</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>51.19892927826351</v>
+        <v>47.05224446607458</v>
       </c>
       <c r="G11">
-        <v>1.97931139324457</v>
+        <v>2.025264090821486</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29.31309177675118</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>14.68396815115095</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.5409773583089</v>
       </c>
       <c r="L11">
-        <v>24.19929359117128</v>
+        <v>9.52444844997035</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>13.69579821410843</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.71110797960429</v>
+        <v>33.51277343605537</v>
       </c>
       <c r="C12">
-        <v>25.9949482251031</v>
+        <v>16.81388980437091</v>
       </c>
       <c r="D12">
-        <v>2.489437301961059</v>
+        <v>4.673847187062512</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>51.95252560453559</v>
+        <v>47.60853078148831</v>
       </c>
       <c r="G12">
-        <v>1.975067146034741</v>
+        <v>2.02160438962776</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>29.65894181121519</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>14.91335419491782</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.92346075107409</v>
       </c>
       <c r="L12">
-        <v>24.56469377326082</v>
+        <v>9.618979095913465</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>13.66194004922744</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.60807939977244</v>
+        <v>33.41096869697841</v>
       </c>
       <c r="C13">
-        <v>25.91385212485128</v>
+        <v>16.76518652464179</v>
       </c>
       <c r="D13">
-        <v>2.494829100606102</v>
+        <v>4.677232994490736</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.79024805891251</v>
+        <v>47.48869139061668</v>
       </c>
       <c r="G13">
-        <v>1.975982618206329</v>
+        <v>2.022392977458372</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>29.58426468206486</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>14.8640022508467</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.84129840244314</v>
       </c>
       <c r="L13">
-        <v>24.48611591446667</v>
+        <v>9.598608954003033</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>13.66916516822929</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.27119474973436</v>
+        <v>33.07802061208073</v>
       </c>
       <c r="C14">
-        <v>25.64879109626384</v>
+        <v>16.60591552814688</v>
       </c>
       <c r="D14">
-        <v>2.512355752003234</v>
+        <v>4.688396251070936</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>51.26094044450242</v>
+        <v>47.09799621670663</v>
       </c>
       <c r="G14">
-        <v>1.978962826731504</v>
+        <v>2.024963176508501</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>29.34145951209497</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>14.70286338561032</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>26.57254080125829</v>
       </c>
       <c r="L14">
-        <v>24.22940937696307</v>
+        <v>9.532220539463317</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>13.69298282599276</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.06414838998031</v>
+        <v>32.87334839119367</v>
       </c>
       <c r="C15">
-        <v>25.48596859881148</v>
+        <v>16.50801511074103</v>
       </c>
       <c r="D15">
-        <v>2.52304878446368</v>
+        <v>4.695325404522332</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>50.93663367666389</v>
+        <v>46.85877327118702</v>
       </c>
       <c r="G15">
-        <v>1.980784425621523</v>
+        <v>2.026536441581489</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>29.19328501961601</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>14.60400443975755</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.40728992074002</v>
       </c>
       <c r="L15">
-        <v>24.0718120683349</v>
+        <v>9.491587840204842</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>13.70776447422486</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.86645257400266</v>
+        <v>31.68887965049901</v>
       </c>
       <c r="C16">
-        <v>24.54528664889387</v>
+        <v>15.94154321641187</v>
       </c>
       <c r="D16">
-        <v>2.583728979214746</v>
+        <v>4.736357284583105</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.10720522720337</v>
+        <v>45.4889310589597</v>
       </c>
       <c r="G16">
-        <v>1.991173542736267</v>
+        <v>2.03554157221188</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.35211278345188</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>14.0347039956152</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>25.4503455774291</v>
       </c>
       <c r="L16">
-        <v>23.16267737279146</v>
+        <v>9.259196434372669</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>13.79529559170115</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.12115479355565</v>
+        <v>30.9515532050928</v>
       </c>
       <c r="C17">
-        <v>23.9609215572657</v>
+        <v>15.58897069623803</v>
       </c>
       <c r="D17">
-        <v>2.620477765018163</v>
+        <v>4.762633241761661</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>48.03870162750839</v>
+        <v>44.64921541646222</v>
       </c>
       <c r="G17">
-        <v>1.997512216180346</v>
+        <v>2.041062194779984</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.84270742385136</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>13.68259261927932</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>24.85407849162737</v>
       </c>
       <c r="L17">
-        <v>22.59904792632619</v>
+        <v>9.117010936828564</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>13.85138060223372</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.68839414259226</v>
+        <v>30.52339736696255</v>
       </c>
       <c r="C18">
-        <v>23.6219484284404</v>
+        <v>15.38424500140363</v>
       </c>
       <c r="D18">
-        <v>2.641460654482375</v>
+        <v>4.778124055557718</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>47.42415377728653</v>
+        <v>44.16636964698161</v>
       </c>
       <c r="G18">
-        <v>2.001148871496912</v>
+        <v>2.044238292060566</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.55197947151461</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>13.47887299169248</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>24.50761279581334</v>
       </c>
       <c r="L18">
-        <v>22.27249176396952</v>
+        <v>9.035360060482409</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>13.88446763488323</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.54114865478286</v>
+        <v>30.37772092298772</v>
       </c>
       <c r="C19">
-        <v>23.50667006450099</v>
+        <v>15.31458923644983</v>
       </c>
       <c r="D19">
-        <v>2.648540533960293</v>
+        <v>4.783431348801582</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>47.21605845170316</v>
+        <v>44.00290225443645</v>
       </c>
       <c r="G19">
-        <v>2.002378920798031</v>
+        <v>2.045313991851582</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.45391957234897</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>13.40967926644512</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24.38969175393925</v>
       </c>
       <c r="L19">
-        <v>22.16150025588287</v>
+        <v>9.007736303762135</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>13.89580826059317</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.20091132536502</v>
+        <v>31.03046068245217</v>
       </c>
       <c r="C20">
-        <v>24.02342044765943</v>
+        <v>15.62670130565194</v>
       </c>
       <c r="D20">
-        <v>2.616582192564842</v>
+        <v>4.759796442100232</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>48.15243678619193</v>
+        <v>44.73858855518854</v>
       </c>
       <c r="G20">
-        <v>1.996838480597979</v>
+        <v>2.04047448090273</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.89669626696185</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>13.72019605231243</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.91791259910827</v>
       </c>
       <c r="L20">
-        <v>22.65928834666631</v>
+        <v>9.132133169835729</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>13.845323465929</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.37028936695283</v>
+        <v>33.17596717702295</v>
       </c>
       <c r="C21">
-        <v>25.7267416344978</v>
+        <v>16.65276813386843</v>
       </c>
       <c r="D21">
-        <v>2.507216752523133</v>
+        <v>4.685098106686998</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.41642735331043</v>
+        <v>47.2127334554942</v>
       </c>
       <c r="G21">
-        <v>1.978088296413173</v>
+        <v>2.024208480611266</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29.41266127687083</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>14.75022549858575</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>26.65161174451286</v>
       </c>
       <c r="L21">
-        <v>24.30488340554</v>
+        <v>9.551713639953549</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>13.68594653398295</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.75643078725921</v>
+        <v>34.54504449577924</v>
       </c>
       <c r="C22">
-        <v>26.81864073858222</v>
+        <v>17.30783055267581</v>
       </c>
       <c r="D22">
-        <v>2.433894179242657</v>
+        <v>4.640287590094956</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.60947799240498</v>
+        <v>48.83342748069671</v>
       </c>
       <c r="G22">
-        <v>1.965670905899799</v>
+        <v>2.013536391660362</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.42760532746553</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>15.41600026440809</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.75618849975992</v>
       </c>
       <c r="L22">
-        <v>25.3638316187415</v>
+        <v>9.827343457644162</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>13.590270704233</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.01926600759568</v>
+        <v>33.81720961027967</v>
       </c>
       <c r="C23">
-        <v>26.23759991369764</v>
+        <v>16.95954192224514</v>
       </c>
       <c r="D23">
-        <v>2.473221944256054</v>
+        <v>4.663801537943003</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>52.43901072063484</v>
+        <v>47.96794023788287</v>
       </c>
       <c r="G23">
-        <v>1.972317626972743</v>
+        <v>2.019238623693336</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>29.8834687790195</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>15.06116676347087</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>27.1691176938024</v>
       </c>
       <c r="L23">
-        <v>24.79991736348156</v>
+        <v>9.680088541048677</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>13.64049856749089</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.16486677417249</v>
+        <v>30.99479990350075</v>
       </c>
       <c r="C24">
-        <v>23.99517412965455</v>
+        <v>15.60964962870236</v>
       </c>
       <c r="D24">
-        <v>2.618343825982964</v>
+        <v>4.761077768515302</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>48.1010179715771</v>
+        <v>44.69818323780596</v>
       </c>
       <c r="G24">
-        <v>1.997143099082839</v>
+        <v>2.040740178933676</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.87228129702066</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>13.70319957915892</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.88906463993737</v>
       </c>
       <c r="L24">
-        <v>22.63206154275401</v>
+        <v>9.125296119243368</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>13.84805928302263</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.92792671381313</v>
+        <v>27.79380942192259</v>
       </c>
       <c r="C25">
-        <v>21.46534419535213</v>
+        <v>14.07890512297413</v>
       </c>
       <c r="D25">
-        <v>2.769182183078639</v>
+        <v>4.88022219038943</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.61152409201678</v>
+        <v>41.17643517322661</v>
       </c>
       <c r="G25">
-        <v>2.023600576363612</v>
+        <v>2.063982859516038</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.78873668474133</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>12.19153847759482</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.29435232169191</v>
       </c>
       <c r="L25">
-        <v>20.2012867622055</v>
+        <v>8.531920457018108</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>14.10320274786692</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.35090401983647</v>
+        <v>24.62678331075782</v>
       </c>
       <c r="C2">
-        <v>12.88015629214619</v>
+        <v>13.57317221294941</v>
       </c>
       <c r="D2">
-        <v>4.977636219964456</v>
+        <v>3.464440440010277</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.58265873337867</v>
+        <v>26.33999943912363</v>
       </c>
       <c r="G2">
-        <v>2.081353175460631</v>
+        <v>37.87870002485765</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.3709555811155</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.25502393913632</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.099213063717144</v>
+        <v>8.103841793575024</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.31337477723086</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.70940808420226</v>
+        <v>22.91454549624983</v>
       </c>
       <c r="C3">
-        <v>12.02008346433749</v>
+        <v>12.99063213183256</v>
       </c>
       <c r="D3">
-        <v>5.048764148707865</v>
+        <v>3.540577627623447</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.82570396181148</v>
+        <v>25.24206006154779</v>
       </c>
       <c r="G3">
-        <v>2.093374285567473</v>
+        <v>36.07013955405505</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.1782092476063</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.7873255214135</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7.809050679604335</v>
+        <v>7.809972433369479</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.46794832743354</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.6667512560183</v>
+        <v>21.8054496839482</v>
       </c>
       <c r="C4">
-        <v>11.4676959322192</v>
+        <v>12.61999462421418</v>
       </c>
       <c r="D4">
-        <v>5.09471913515667</v>
+        <v>3.587904947745248</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.74884541917542</v>
+        <v>24.58078610214326</v>
       </c>
       <c r="G4">
-        <v>2.100903533135705</v>
+        <v>34.97443055395946</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.07220257779286</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.84241228205409</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.632704843709369</v>
+        <v>7.630290019822943</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.56836620051041</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.23326729531794</v>
+        <v>21.33879644700616</v>
       </c>
       <c r="C5">
-        <v>11.23638763321835</v>
+        <v>12.46579564843799</v>
       </c>
       <c r="D5">
-        <v>5.113990373814951</v>
+        <v>3.607351659951822</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.31082952872918</v>
+        <v>24.31482173271739</v>
       </c>
       <c r="G5">
-        <v>2.104012433701243</v>
+        <v>34.5321340983119</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.03201462920066</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.4461535259933</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>7.561355478461584</v>
+        <v>7.557337202412342</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.61061075097449</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.16077491280834</v>
+        <v>21.26041740083446</v>
       </c>
       <c r="C6">
-        <v>11.19760180369867</v>
+        <v>12.44000333461987</v>
       </c>
       <c r="D6">
-        <v>5.117222442338294</v>
+        <v>3.610590890907248</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.23815768198214</v>
+        <v>24.27087908016599</v>
       </c>
       <c r="G6">
-        <v>2.104531214508163</v>
+        <v>34.45896163867838</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.0255204338763</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.37967318045692</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7.549540776759279</v>
+        <v>7.545242188568412</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.61770370436721</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.6609396625723</v>
+        <v>21.79921591145425</v>
       </c>
       <c r="C7">
-        <v>11.46460166829445</v>
+        <v>12.6179276993636</v>
       </c>
       <c r="D7">
-        <v>5.094976865967076</v>
+        <v>3.588166543827013</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.74293439485051</v>
+        <v>24.57718461868664</v>
       </c>
       <c r="G7">
-        <v>2.100945291900244</v>
+        <v>34.96844781167749</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.0716485268258</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.83711379322761</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>7.63174044284225</v>
+        <v>7.629304951277713</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.56893064250359</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.79219433130798</v>
+        <v>24.04829627121493</v>
       </c>
       <c r="C8">
-        <v>12.58858314393994</v>
+        <v>13.37505275425046</v>
       </c>
       <c r="D8">
-        <v>5.001668013114513</v>
+        <v>3.490581506885925</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>37.97663279891128</v>
+        <v>25.95891540478493</v>
       </c>
       <c r="G8">
-        <v>2.085469427436689</v>
+        <v>37.25232508812893</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.3018820038586</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.75791337373394</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.998819261917037</v>
+        <v>8.002403880555917</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.36548846940018</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.89424666168245</v>
+        <v>28.00794967915689</v>
       </c>
       <c r="C9">
-        <v>14.60522607660813</v>
+        <v>14.75381304122417</v>
       </c>
       <c r="D9">
-        <v>4.83843748752578</v>
+        <v>3.303121399925937</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.3627625827428</v>
+        <v>28.76042082978944</v>
       </c>
       <c r="G9">
-        <v>2.056126633994324</v>
+        <v>41.83036801453933</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.85509835828239</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.18763759391545</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>8.731175188704887</v>
+        <v>8.737075588411953</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.0135217055723</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.7724724199719</v>
+        <v>30.65361686979356</v>
       </c>
       <c r="C10">
-        <v>15.98151729483508</v>
+        <v>15.69941040267525</v>
       </c>
       <c r="D10">
-        <v>4.733412154175968</v>
+        <v>3.166810636057518</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>45.58477345489486</v>
+        <v>30.86489767383441</v>
       </c>
       <c r="G10">
-        <v>2.034911584296724</v>
+        <v>45.23835751629689</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.32852589825018</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.51791708294488</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>9.275439019586299</v>
+        <v>9.275617092106675</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.78901160352054</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.03892473709761</v>
+        <v>31.80270133445444</v>
       </c>
       <c r="C11">
-        <v>16.5872144456549</v>
+        <v>16.11475397901665</v>
       </c>
       <c r="D11">
-        <v>4.689715965679055</v>
+        <v>3.104901419892359</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.05224446607458</v>
+        <v>31.83148179200425</v>
       </c>
       <c r="G11">
-        <v>2.025264090821486</v>
+        <v>46.79738582805634</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.55949530314446</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.5409773583089</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>9.52444844997035</v>
+        <v>9.519980667459581</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.69579821410843</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.51277343605537</v>
+        <v>32.23024584396752</v>
       </c>
       <c r="C12">
-        <v>16.81388980437091</v>
+        <v>16.26990939077134</v>
       </c>
       <c r="D12">
-        <v>4.673847187062512</v>
+        <v>3.081456467522596</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>47.60853078148831</v>
+        <v>32.19885448068651</v>
       </c>
       <c r="G12">
-        <v>2.02160438962776</v>
+        <v>47.38908337054036</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.64929234136576</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.92346075107409</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>9.618979095913465</v>
+        <v>9.612414472044302</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.66194004922744</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.41096869697841</v>
+        <v>32.13849994733272</v>
       </c>
       <c r="C13">
-        <v>16.76518652464179</v>
+        <v>16.23658821063924</v>
       </c>
       <c r="D13">
-        <v>4.677232994490736</v>
+        <v>3.08650604775495</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>47.48869139061668</v>
+        <v>32.11967309785769</v>
       </c>
       <c r="G13">
-        <v>2.022392977458372</v>
+        <v>47.26158905297883</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.62984760978811</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.84129840244314</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>9.598608954003033</v>
+        <v>9.592511723528691</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.66916516822929</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.07802061208073</v>
+        <v>31.83802631911217</v>
       </c>
       <c r="C14">
-        <v>16.60591552814688</v>
+        <v>16.12756123538433</v>
       </c>
       <c r="D14">
-        <v>4.688396251070936</v>
+        <v>3.10297269960088</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>47.09799621670663</v>
+        <v>31.86167835680007</v>
       </c>
       <c r="G14">
-        <v>2.024963176508501</v>
+        <v>46.8460376313442</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.56683563667731</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.57254080125829</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>9.532220539463317</v>
+        <v>9.52758729450178</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.69298282599276</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.87334839119367</v>
+        <v>31.65299674165371</v>
       </c>
       <c r="C15">
-        <v>16.50801511074103</v>
+        <v>16.06050258772426</v>
       </c>
       <c r="D15">
-        <v>4.695325404522332</v>
+        <v>3.11305839309136</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>46.85877327118702</v>
+        <v>31.7038266010061</v>
       </c>
       <c r="G15">
-        <v>2.026536441581489</v>
+        <v>46.59167775819756</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.52854575126274</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.40728992074002</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>9.491587840204842</v>
+        <v>9.487805927033198</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.70776447422486</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.68887965049901</v>
+        <v>30.57744600645002</v>
       </c>
       <c r="C16">
-        <v>15.94154321641187</v>
+        <v>15.67196858110129</v>
       </c>
       <c r="D16">
-        <v>4.736357284583105</v>
+        <v>3.170857190817875</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>45.4889310589597</v>
+        <v>30.80191502060158</v>
       </c>
       <c r="G16">
-        <v>2.03554157221188</v>
+        <v>45.13664999997206</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.31375301953727</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.4503455774291</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>9.259196434372669</v>
+        <v>9.259633455732317</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.79529559170115</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.9515532050928</v>
+        <v>29.90385062019302</v>
       </c>
       <c r="C17">
-        <v>15.58897069623803</v>
+        <v>15.42981878636083</v>
       </c>
       <c r="D17">
-        <v>4.762633241761661</v>
+        <v>3.206328900638533</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>44.64921541646222</v>
+        <v>30.25097876723413</v>
       </c>
       <c r="G17">
-        <v>2.041062194779984</v>
+        <v>44.24628041590008</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.18604300965203</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.85407849162737</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>9.117010936828564</v>
+        <v>9.119484211101675</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.85138060223372</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.52339736696255</v>
+        <v>29.51127642613723</v>
       </c>
       <c r="C18">
-        <v>15.38424500140363</v>
+        <v>15.28914498100645</v>
       </c>
       <c r="D18">
-        <v>4.778124055557718</v>
+        <v>3.226741514809116</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44.16636964698161</v>
+        <v>29.93495944748753</v>
       </c>
       <c r="G18">
-        <v>2.044238292060566</v>
+        <v>43.7349712495202</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.11405066868384</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.50761279581334</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>9.035360060482409</v>
+        <v>9.038815297159426</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.88446763488323</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.37772092298772</v>
+        <v>29.37746778421121</v>
       </c>
       <c r="C19">
-        <v>15.31458923644983</v>
+        <v>15.24127570737749</v>
       </c>
       <c r="D19">
-        <v>4.783431348801582</v>
+        <v>3.233655122767463</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.00290225443645</v>
+        <v>29.82810993290658</v>
       </c>
       <c r="G19">
-        <v>2.045313991851582</v>
+        <v>43.56198944275103</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.08992397067654</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.38969175393925</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>9.007736303762135</v>
+        <v>9.011492722138923</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.89580826059317</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.03046068245217</v>
+        <v>29.97608629182422</v>
       </c>
       <c r="C20">
-        <v>15.62670130565194</v>
+        <v>15.45574051610942</v>
       </c>
       <c r="D20">
-        <v>4.759796442100232</v>
+        <v>3.202551934614106</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>44.73858855518854</v>
+        <v>30.3095374973394</v>
       </c>
       <c r="G20">
-        <v>2.04047448090273</v>
+        <v>44.34097805967608</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.19948590972607</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.91791259910827</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>9.132133169835729</v>
+        <v>9.134409558638911</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.845323465929</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.17596717702295</v>
+        <v>31.92648664692536</v>
       </c>
       <c r="C21">
-        <v>16.65276813386843</v>
+        <v>16.15964268692408</v>
       </c>
       <c r="D21">
-        <v>4.685098106686998</v>
+        <v>3.098136196948778</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>47.2127334554942</v>
+        <v>31.93742053641293</v>
       </c>
       <c r="G21">
-        <v>2.024208480611266</v>
+        <v>46.96805786878674</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.58527967669531</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.65161174451286</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>9.551713639953549</v>
+        <v>9.546659938948308</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.68594653398295</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.54504449577924</v>
+        <v>33.15707993067483</v>
       </c>
       <c r="C22">
-        <v>17.30783055267581</v>
+        <v>16.6073046263513</v>
       </c>
       <c r="D22">
-        <v>4.640287590094956</v>
+        <v>3.029880924707106</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.83342748069671</v>
+        <v>33.00926085836743</v>
       </c>
       <c r="G22">
-        <v>2.013536391660362</v>
+        <v>48.69287596237459</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.85107130439216</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.75618849975992</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>9.827343457644162</v>
+        <v>9.815504746372341</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.590270704233</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.81720961027967</v>
+        <v>32.50423978882541</v>
       </c>
       <c r="C23">
-        <v>16.95954192224514</v>
+        <v>16.36950585237946</v>
       </c>
       <c r="D23">
-        <v>4.663801537943003</v>
+        <v>3.06631604780932</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>47.96794023788287</v>
+        <v>32.43644752575939</v>
       </c>
       <c r="G23">
-        <v>2.019238623693336</v>
+        <v>47.77152788727023</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.7079317703163</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.1691176938024</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>9.680088541048677</v>
+        <v>9.672070379944962</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.64049856749089</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.99479990350075</v>
+        <v>29.94344511831222</v>
       </c>
       <c r="C24">
-        <v>15.60964962870236</v>
+        <v>15.44402584557552</v>
       </c>
       <c r="D24">
-        <v>4.761077768515302</v>
+        <v>3.204259439159666</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>44.69818323780596</v>
+        <v>30.28306084922224</v>
       </c>
       <c r="G24">
-        <v>2.040740178933676</v>
+        <v>44.29816346411332</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.19340392762262</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.88906463993737</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>9.125296119243368</v>
+        <v>9.127662104564934</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.84805928302263</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.79380942192259</v>
+        <v>26.98389549617585</v>
       </c>
       <c r="C25">
-        <v>14.07890512297413</v>
+        <v>14.39252479821273</v>
       </c>
       <c r="D25">
-        <v>4.88022219038943</v>
+        <v>3.353515466913073</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>41.17643517322661</v>
+        <v>27.99391906691373</v>
       </c>
       <c r="G25">
-        <v>2.063982859516038</v>
+        <v>40.58331647569164</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.69402482431509</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.29435232169191</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>8.531920457018108</v>
+        <v>8.538368559895797</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.10320274786692</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.62678331075782</v>
+        <v>18.02622406214402</v>
       </c>
       <c r="C2">
-        <v>13.57317221294941</v>
+        <v>10.8732378308616</v>
       </c>
       <c r="D2">
-        <v>3.464440440010277</v>
+        <v>5.187993927289388</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.33999943912363</v>
+        <v>28.57249813807272</v>
       </c>
       <c r="G2">
-        <v>37.87870002485765</v>
+        <v>36.70424317113589</v>
       </c>
       <c r="H2">
-        <v>11.3709555811155</v>
+        <v>15.82437198321952</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.103841793575024</v>
+        <v>10.71811381589169</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.91454549624983</v>
+        <v>17.44610520383242</v>
       </c>
       <c r="C3">
-        <v>12.99063213183256</v>
+        <v>10.62600114821866</v>
       </c>
       <c r="D3">
-        <v>3.540577627623447</v>
+        <v>5.20608871023122</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.24206006154779</v>
+        <v>28.45934946125375</v>
       </c>
       <c r="G3">
-        <v>36.07013955405505</v>
+        <v>36.43878964619378</v>
       </c>
       <c r="H3">
-        <v>11.1782092476063</v>
+        <v>15.85407002280443</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.809972433369479</v>
+        <v>10.69427126272141</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.8054496839482</v>
+        <v>17.08364535133095</v>
       </c>
       <c r="C4">
-        <v>12.61999462421418</v>
+        <v>10.46984292237912</v>
       </c>
       <c r="D4">
-        <v>3.587904947745248</v>
+        <v>5.217710498784029</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.58078610214326</v>
+        <v>28.40057899600273</v>
       </c>
       <c r="G4">
-        <v>34.97443055395946</v>
+        <v>36.29172190607667</v>
       </c>
       <c r="H4">
-        <v>11.07220257779286</v>
+        <v>15.87663060746644</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.630290019822943</v>
+        <v>10.68192810282209</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.33879644700616</v>
+        <v>16.93460504147481</v>
       </c>
       <c r="C5">
-        <v>12.46579564843799</v>
+        <v>10.40516738212959</v>
       </c>
       <c r="D5">
-        <v>3.607351659951822</v>
+        <v>5.2225756478598</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.31482173271739</v>
+        <v>28.37933278750872</v>
       </c>
       <c r="G5">
-        <v>34.5321340983119</v>
+        <v>36.23584472437645</v>
       </c>
       <c r="H5">
-        <v>11.03201462920066</v>
+        <v>15.88690701212714</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.557337202412342</v>
+        <v>10.67747850899123</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.26041740083446</v>
+        <v>16.90978375814523</v>
       </c>
       <c r="C6">
-        <v>12.44000333461987</v>
+        <v>10.39436693070215</v>
       </c>
       <c r="D6">
-        <v>3.610590890907248</v>
+        <v>5.223391320348133</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.27087908016599</v>
+        <v>28.37596839443767</v>
       </c>
       <c r="G6">
-        <v>34.45896163867838</v>
+        <v>36.22681249939064</v>
       </c>
       <c r="H6">
-        <v>11.0255204338763</v>
+        <v>15.88867864521276</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.545242188568412</v>
+        <v>10.67677478395571</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.79921591145425</v>
+        <v>17.08164041608306</v>
       </c>
       <c r="C7">
-        <v>12.6179276993636</v>
+        <v>10.4689748203236</v>
       </c>
       <c r="D7">
-        <v>3.588166543827013</v>
+        <v>5.2177755881498</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.57718461868664</v>
+        <v>28.40028150485844</v>
       </c>
       <c r="G7">
-        <v>34.96844781167749</v>
+        <v>36.29095185275151</v>
       </c>
       <c r="H7">
-        <v>11.0716485268258</v>
+        <v>15.87676482147</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.629304951277713</v>
+        <v>10.68186574077567</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.04829627121493</v>
+        <v>17.82763779148594</v>
       </c>
       <c r="C8">
-        <v>13.37505275425046</v>
+        <v>10.78892623682928</v>
       </c>
       <c r="D8">
-        <v>3.490581506885925</v>
+        <v>5.194127172710992</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.95891540478493</v>
+        <v>28.53127148033133</v>
       </c>
       <c r="G8">
-        <v>37.25232508812893</v>
+        <v>36.60944350854182</v>
       </c>
       <c r="H8">
-        <v>11.3018820038586</v>
+        <v>15.83371114608799</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.002403880555917</v>
+        <v>10.70941822592683</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.00794967915689</v>
+        <v>19.2312123944741</v>
       </c>
       <c r="C9">
-        <v>14.75381304122417</v>
+        <v>11.3795622867559</v>
       </c>
       <c r="D9">
-        <v>3.303121399925937</v>
+        <v>5.151786520788955</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.76042082978944</v>
+        <v>28.87233276732546</v>
       </c>
       <c r="G9">
-        <v>41.83036801453933</v>
+        <v>37.3576436945996</v>
       </c>
       <c r="H9">
-        <v>11.85509835828239</v>
+        <v>15.78381334213869</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.737075588411953</v>
+        <v>10.78151748113075</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.65361686979356</v>
+        <v>20.21470569092348</v>
       </c>
       <c r="C10">
-        <v>15.69941040267525</v>
+        <v>11.78832393635975</v>
       </c>
       <c r="D10">
-        <v>3.166810636057518</v>
+        <v>5.123103555150152</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.86489767383441</v>
+        <v>29.17294566916862</v>
       </c>
       <c r="G10">
-        <v>45.23835751629689</v>
+        <v>37.97847973665603</v>
       </c>
       <c r="H10">
-        <v>12.32852589825018</v>
+        <v>15.76846120073212</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.275617092106675</v>
+        <v>10.84527015090297</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.80270133445444</v>
+        <v>20.64969459318475</v>
       </c>
       <c r="C11">
-        <v>16.11475397901665</v>
+        <v>11.96830052838838</v>
       </c>
       <c r="D11">
-        <v>3.104901419892359</v>
+        <v>5.110574243439148</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.83148179200425</v>
+        <v>29.32020247455027</v>
       </c>
       <c r="G11">
-        <v>46.79738582805634</v>
+        <v>38.27529114354999</v>
       </c>
       <c r="H11">
-        <v>12.55949530314446</v>
+        <v>15.76614965825021</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.519980667459581</v>
+        <v>10.87655355656964</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.23024584396752</v>
+        <v>20.81248118508529</v>
       </c>
       <c r="C12">
-        <v>16.26990939077134</v>
+        <v>12.03555601433269</v>
       </c>
       <c r="D12">
-        <v>3.081456467522596</v>
+        <v>5.105903774812715</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.19885448068651</v>
+        <v>29.37743889670002</v>
       </c>
       <c r="G12">
-        <v>47.38908337054036</v>
+        <v>38.3896558838163</v>
       </c>
       <c r="H12">
-        <v>12.64929234136576</v>
+        <v>15.76594912805573</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.612414472044302</v>
+        <v>10.88872199556906</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.13849994733272</v>
+        <v>20.77751042011359</v>
       </c>
       <c r="C13">
-        <v>16.23658821063924</v>
+        <v>12.02111185674264</v>
       </c>
       <c r="D13">
-        <v>3.08650604775495</v>
+        <v>5.106906355271364</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.11967309785769</v>
+        <v>29.36504710953168</v>
       </c>
       <c r="G13">
-        <v>47.26158905297883</v>
+        <v>38.36493948935885</v>
       </c>
       <c r="H13">
-        <v>12.62984760978811</v>
+        <v>15.76596226248858</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.592511723528691</v>
+        <v>10.88608708078496</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.83802631911217</v>
+        <v>20.66312671018996</v>
       </c>
       <c r="C14">
-        <v>16.12756123538433</v>
+        <v>11.97385188195676</v>
       </c>
       <c r="D14">
-        <v>3.10297269960088</v>
+        <v>5.110188518618786</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.86167835680007</v>
+        <v>29.3248820458595</v>
       </c>
       <c r="G14">
-        <v>46.8460376313442</v>
+        <v>38.28466113868996</v>
       </c>
       <c r="H14">
-        <v>12.56683563667731</v>
+        <v>15.76611962147975</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.52758729450178</v>
+        <v>10.8775482425174</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.65299674165371</v>
+        <v>20.59280731680465</v>
       </c>
       <c r="C15">
-        <v>16.06050258772426</v>
+        <v>11.9447857664632</v>
       </c>
       <c r="D15">
-        <v>3.11305839309136</v>
+        <v>5.112208575643887</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.7038266010061</v>
+        <v>29.30047050256941</v>
       </c>
       <c r="G15">
-        <v>46.59167775819756</v>
+        <v>38.23574163826537</v>
       </c>
       <c r="H15">
-        <v>12.52854575126274</v>
+        <v>15.76630396591334</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.487805927033198</v>
+        <v>10.87235971567725</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.57744600645002</v>
+        <v>20.18601526069758</v>
       </c>
       <c r="C16">
-        <v>15.67196858110129</v>
+        <v>11.77643846946756</v>
       </c>
       <c r="D16">
-        <v>3.170857190817875</v>
+        <v>5.123932771642817</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.80191502060158</v>
+        <v>29.16353039901684</v>
       </c>
       <c r="G16">
-        <v>45.13664999997206</v>
+        <v>37.95936350566053</v>
       </c>
       <c r="H16">
-        <v>12.31375301953727</v>
+        <v>15.76870654557497</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.259633455732317</v>
+        <v>10.8432711195018</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.90385062019302</v>
+        <v>19.93317153319095</v>
       </c>
       <c r="C17">
-        <v>15.42981878636083</v>
+        <v>11.67160461916023</v>
       </c>
       <c r="D17">
-        <v>3.206328900638533</v>
+        <v>5.13125769563116</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.25097876723413</v>
+        <v>29.08218764814626</v>
       </c>
       <c r="G17">
-        <v>44.24628041590008</v>
+        <v>37.79343032507119</v>
       </c>
       <c r="H17">
-        <v>12.18604300965203</v>
+        <v>15.77137937254051</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.119484211101675</v>
+        <v>10.82600652434828</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.51127642613723</v>
+        <v>19.78658255741576</v>
       </c>
       <c r="C18">
-        <v>15.28914498100645</v>
+        <v>11.61074705148718</v>
       </c>
       <c r="D18">
-        <v>3.226741514809116</v>
+        <v>5.135519649972809</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.93495944748753</v>
+        <v>29.03639285046274</v>
       </c>
       <c r="G18">
-        <v>43.7349712495202</v>
+        <v>37.69935080553302</v>
       </c>
       <c r="H18">
-        <v>12.11405066868384</v>
+        <v>15.77335633988798</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.038815297159426</v>
+        <v>10.81629157147592</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.37746778421121</v>
+        <v>19.73675567826841</v>
       </c>
       <c r="C19">
-        <v>15.24127570737749</v>
+        <v>11.59004680606286</v>
       </c>
       <c r="D19">
-        <v>3.233655122767463</v>
+        <v>5.136971079632551</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.82810993290658</v>
+        <v>29.02105887029216</v>
       </c>
       <c r="G19">
-        <v>43.56198944275103</v>
+        <v>37.66773379805161</v>
       </c>
       <c r="H19">
-        <v>12.08992397067654</v>
+        <v>15.7741011155843</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.011492722138923</v>
+        <v>10.81303939042141</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.97608629182422</v>
+        <v>19.96020837116441</v>
       </c>
       <c r="C20">
-        <v>15.45574051610942</v>
+        <v>11.68282260378006</v>
       </c>
       <c r="D20">
-        <v>3.202551934614106</v>
+        <v>5.130472892556766</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.3095374973394</v>
+        <v>29.09074437577838</v>
       </c>
       <c r="G20">
-        <v>44.34097805967608</v>
+        <v>37.81095406331087</v>
       </c>
       <c r="H20">
-        <v>12.19948590972607</v>
+        <v>15.77104932296748</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.134409558638911</v>
+        <v>10.82782214146526</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.92648664692536</v>
+        <v>20.69677758755468</v>
       </c>
       <c r="C21">
-        <v>16.15964268692408</v>
+        <v>11.98775794178167</v>
       </c>
       <c r="D21">
-        <v>3.098136196948778</v>
+        <v>5.109222460137781</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.93742053641293</v>
+        <v>29.33663982491079</v>
       </c>
       <c r="G21">
-        <v>46.96805786878674</v>
+        <v>38.30818823394785</v>
       </c>
       <c r="H21">
-        <v>12.58527967669531</v>
+        <v>15.766055066531</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.546659938948308</v>
+        <v>10.88004761540128</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.15707993067483</v>
+        <v>21.16683569917738</v>
       </c>
       <c r="C22">
-        <v>16.6073046263513</v>
+        <v>12.18180226077912</v>
       </c>
       <c r="D22">
-        <v>3.029880924707106</v>
+        <v>5.095765827513285</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.00926085836743</v>
+        <v>29.50591538200412</v>
       </c>
       <c r="G22">
-        <v>48.69287596237459</v>
+        <v>38.64458444133684</v>
       </c>
       <c r="H22">
-        <v>12.85107130439216</v>
+        <v>15.76672528629686</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.815504746372341</v>
+        <v>10.9160542464615</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.50423978882541</v>
+        <v>20.91703909001526</v>
       </c>
       <c r="C23">
-        <v>16.36950585237946</v>
+        <v>12.07872946281898</v>
       </c>
       <c r="D23">
-        <v>3.06631604780932</v>
+        <v>5.102908536043866</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.43644752575939</v>
+        <v>29.41479906054627</v>
       </c>
       <c r="G23">
-        <v>47.77152788727023</v>
+        <v>38.46403261542311</v>
       </c>
       <c r="H23">
-        <v>12.7079317703163</v>
+        <v>15.76600675421431</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.672070379944962</v>
+        <v>10.89666745520245</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.94344511831222</v>
+        <v>19.94798882307217</v>
       </c>
       <c r="C24">
-        <v>15.44402584557552</v>
+        <v>11.67775277894075</v>
       </c>
       <c r="D24">
-        <v>3.204259439159666</v>
+        <v>5.130827543864912</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.28306084922224</v>
+        <v>29.08687285422834</v>
       </c>
       <c r="G24">
-        <v>44.29816346411332</v>
+        <v>37.80302746926195</v>
       </c>
       <c r="H24">
-        <v>12.19340392762262</v>
+        <v>15.77119716701373</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.127662104564934</v>
+        <v>10.8270006442442</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.98389549617585</v>
+        <v>18.85912482925665</v>
       </c>
       <c r="C25">
-        <v>14.39252479821273</v>
+        <v>11.22401568030816</v>
       </c>
       <c r="D25">
-        <v>3.353515466913073</v>
+        <v>5.16281253801179</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.99391906691373</v>
+        <v>28.77116935401684</v>
       </c>
       <c r="G25">
-        <v>40.58331647569164</v>
+        <v>37.14240429714759</v>
       </c>
       <c r="H25">
-        <v>11.69402482431509</v>
+        <v>15.79358699148334</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.538368559895797</v>
+        <v>10.76010040873632</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.02622406214402</v>
+        <v>24.62678331075783</v>
       </c>
       <c r="C2">
-        <v>10.8732378308616</v>
+        <v>13.57317221294942</v>
       </c>
       <c r="D2">
-        <v>5.187993927289388</v>
+        <v>3.464440440010277</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.57249813807272</v>
+        <v>26.33999943912361</v>
       </c>
       <c r="G2">
-        <v>36.70424317113589</v>
+        <v>37.87870002485764</v>
       </c>
       <c r="H2">
-        <v>15.82437198321952</v>
+        <v>11.3709555811155</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.71811381589169</v>
+        <v>8.103841793575018</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.44610520383242</v>
+        <v>22.91454549624984</v>
       </c>
       <c r="C3">
-        <v>10.62600114821866</v>
+        <v>12.99063213183245</v>
       </c>
       <c r="D3">
-        <v>5.20608871023122</v>
+        <v>3.540577627623313</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.45934946125375</v>
+        <v>25.24206006154787</v>
       </c>
       <c r="G3">
-        <v>36.43878964619378</v>
+        <v>36.07013955405518</v>
       </c>
       <c r="H3">
-        <v>15.85407002280443</v>
+        <v>11.1782092476063</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.69427126272141</v>
+        <v>7.809972433369527</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.08364535133095</v>
+        <v>21.80544968394816</v>
       </c>
       <c r="C4">
-        <v>10.46984292237912</v>
+        <v>12.61999462421427</v>
       </c>
       <c r="D4">
-        <v>5.217710498784029</v>
+        <v>3.587904947745379</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.40057899600273</v>
+        <v>24.58078610214338</v>
       </c>
       <c r="G4">
-        <v>36.29172190607667</v>
+        <v>34.97443055395964</v>
       </c>
       <c r="H4">
-        <v>15.87663060746644</v>
+        <v>11.07220257779292</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.68192810282209</v>
+        <v>7.630290019822987</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.93460504147481</v>
+        <v>21.33879644700621</v>
       </c>
       <c r="C5">
-        <v>10.40516738212959</v>
+        <v>12.46579564843777</v>
       </c>
       <c r="D5">
-        <v>5.2225756478598</v>
+        <v>3.607351659952021</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.37933278750872</v>
+        <v>24.31482173271734</v>
       </c>
       <c r="G5">
-        <v>36.23584472437645</v>
+        <v>34.5321340983119</v>
       </c>
       <c r="H5">
-        <v>15.88690701212714</v>
+        <v>11.0320146292006</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.67747850899123</v>
+        <v>7.557337202412404</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.90978375814523</v>
+        <v>21.26041740083446</v>
       </c>
       <c r="C6">
-        <v>10.39436693070215</v>
+        <v>12.44000333461987</v>
       </c>
       <c r="D6">
-        <v>5.223391320348133</v>
+        <v>3.610590890907313</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.37596839443767</v>
+        <v>24.27087908016605</v>
       </c>
       <c r="G6">
-        <v>36.22681249939064</v>
+        <v>34.4589616386785</v>
       </c>
       <c r="H6">
-        <v>15.88867864521276</v>
+        <v>11.02552043387635</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.67677478395571</v>
+        <v>7.545242188568436</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.08164041608306</v>
+        <v>21.79921591145418</v>
       </c>
       <c r="C7">
-        <v>10.4689748203236</v>
+        <v>12.61792769936369</v>
       </c>
       <c r="D7">
-        <v>5.2177755881498</v>
+        <v>3.588166543827073</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.40028150485844</v>
+        <v>24.57718461868677</v>
       </c>
       <c r="G7">
-        <v>36.29095185275151</v>
+        <v>34.96844781167766</v>
       </c>
       <c r="H7">
-        <v>15.87676482147</v>
+        <v>11.07164852682595</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.68186574077567</v>
+        <v>7.629304951277705</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.82763779148594</v>
+        <v>24.04829627121497</v>
       </c>
       <c r="C8">
-        <v>10.78892623682928</v>
+        <v>13.37505275425019</v>
       </c>
       <c r="D8">
-        <v>5.194127172710992</v>
+        <v>3.490581506885858</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.53127148033133</v>
+        <v>25.95891540478499</v>
       </c>
       <c r="G8">
-        <v>36.60944350854182</v>
+        <v>37.25232508812906</v>
       </c>
       <c r="H8">
-        <v>15.83371114608799</v>
+        <v>11.30188200385862</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.70941822592683</v>
+        <v>8.002403880555912</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.2312123944741</v>
+        <v>28.00794967915701</v>
       </c>
       <c r="C9">
-        <v>11.3795622867559</v>
+        <v>14.75381304122376</v>
       </c>
       <c r="D9">
-        <v>5.151786520788955</v>
+        <v>3.303121399926072</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.87233276732546</v>
+        <v>28.76042082978945</v>
       </c>
       <c r="G9">
-        <v>37.3576436945996</v>
+        <v>41.83036801453942</v>
       </c>
       <c r="H9">
-        <v>15.78381334213869</v>
+        <v>11.85509835828233</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.78151748113075</v>
+        <v>8.737075588411926</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.21470569092348</v>
+        <v>30.65361686979354</v>
       </c>
       <c r="C10">
-        <v>11.78832393635975</v>
+        <v>15.69941040267552</v>
       </c>
       <c r="D10">
-        <v>5.123103555150152</v>
+        <v>3.166810636057381</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.17294566916862</v>
+        <v>30.86489767383444</v>
       </c>
       <c r="G10">
-        <v>37.97847973665603</v>
+        <v>45.23835751629696</v>
       </c>
       <c r="H10">
-        <v>15.76846120073212</v>
+        <v>12.32852589825024</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.84527015090297</v>
+        <v>9.275617092106664</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.64969459318475</v>
+        <v>31.80270133445445</v>
       </c>
       <c r="C11">
-        <v>11.96830052838838</v>
+        <v>16.11475397901668</v>
       </c>
       <c r="D11">
-        <v>5.110574243439148</v>
+        <v>3.104901419892362</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.32020247455027</v>
+        <v>31.83148179200428</v>
       </c>
       <c r="G11">
-        <v>38.27529114354999</v>
+        <v>46.79738582805639</v>
       </c>
       <c r="H11">
-        <v>15.76614965825021</v>
+        <v>12.55949530314447</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.87655355656964</v>
+        <v>9.519980667459622</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.81248118508529</v>
+        <v>32.23024584396752</v>
       </c>
       <c r="C12">
-        <v>12.03555601433269</v>
+        <v>16.26990939077135</v>
       </c>
       <c r="D12">
-        <v>5.105903774812715</v>
+        <v>3.081456467522525</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.37743889670002</v>
+        <v>32.19885448068658</v>
       </c>
       <c r="G12">
-        <v>38.3896558838163</v>
+        <v>47.38908337054048</v>
       </c>
       <c r="H12">
-        <v>15.76594912805573</v>
+        <v>12.64929234136578</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.88872199556906</v>
+        <v>9.612414472044325</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.77751042011359</v>
+        <v>32.13849994733266</v>
       </c>
       <c r="C13">
-        <v>12.02111185674264</v>
+        <v>16.23658821063915</v>
       </c>
       <c r="D13">
-        <v>5.106906355271364</v>
+        <v>3.086506047754959</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.36504710953168</v>
+        <v>32.1196730978576</v>
       </c>
       <c r="G13">
-        <v>38.36493948935885</v>
+        <v>47.2615890529786</v>
       </c>
       <c r="H13">
-        <v>15.76596226248858</v>
+        <v>12.62984760978808</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.88608708078496</v>
+        <v>9.592511723528698</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.66312671018996</v>
+        <v>31.83802631911217</v>
       </c>
       <c r="C14">
-        <v>11.97385188195676</v>
+        <v>16.12756123538433</v>
       </c>
       <c r="D14">
-        <v>5.110188518618786</v>
+        <v>3.102972699600871</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.3248820458595</v>
+        <v>31.86167835680012</v>
       </c>
       <c r="G14">
-        <v>38.28466113868996</v>
+        <v>46.84603763134429</v>
       </c>
       <c r="H14">
-        <v>15.76611962147975</v>
+        <v>12.56683563667733</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.8775482425174</v>
+        <v>9.527587294501801</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.59280731680465</v>
+        <v>31.65299674165365</v>
       </c>
       <c r="C15">
-        <v>11.9447857664632</v>
+        <v>16.06050258772444</v>
       </c>
       <c r="D15">
-        <v>5.112208575643887</v>
+        <v>3.113058393091231</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.30047050256941</v>
+        <v>31.70382660100611</v>
       </c>
       <c r="G15">
-        <v>38.23574163826537</v>
+        <v>46.59167775819753</v>
       </c>
       <c r="H15">
-        <v>15.76630396591334</v>
+        <v>12.52854575126275</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.87235971567725</v>
+        <v>9.487805927033191</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.18601526069758</v>
+        <v>30.57744600645005</v>
       </c>
       <c r="C16">
-        <v>11.77643846946756</v>
+        <v>15.67196858110127</v>
       </c>
       <c r="D16">
-        <v>5.123932771642817</v>
+        <v>3.170857190818003</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>29.16353039901684</v>
+        <v>30.80191502060164</v>
       </c>
       <c r="G16">
-        <v>37.95936350566053</v>
+        <v>45.13664999997217</v>
       </c>
       <c r="H16">
-        <v>15.76870654557497</v>
+        <v>12.31375301953726</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.8432711195018</v>
+        <v>9.259633455732279</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.93317153319095</v>
+        <v>29.90385062019307</v>
       </c>
       <c r="C17">
-        <v>11.67160461916023</v>
+        <v>15.42981878636072</v>
       </c>
       <c r="D17">
-        <v>5.13125769563116</v>
+        <v>3.206328900638591</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29.08218764814626</v>
+        <v>30.25097876723413</v>
       </c>
       <c r="G17">
-        <v>37.79343032507119</v>
+        <v>44.24628041590011</v>
       </c>
       <c r="H17">
-        <v>15.77137937254051</v>
+        <v>12.18604300965202</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.82600652434828</v>
+        <v>9.11948421110168</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.78658255741576</v>
+        <v>29.51127642613723</v>
       </c>
       <c r="C18">
-        <v>11.61074705148718</v>
+        <v>15.28914498100669</v>
       </c>
       <c r="D18">
-        <v>5.135519649972809</v>
+        <v>3.226741514809231</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.03639285046274</v>
+        <v>29.93495944748759</v>
       </c>
       <c r="G18">
-        <v>37.69935080553302</v>
+        <v>43.7349712495204</v>
       </c>
       <c r="H18">
-        <v>15.77335633988798</v>
+        <v>12.11405066868388</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.81629157147592</v>
+        <v>9.038815297159424</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.73675567826841</v>
+        <v>29.37746778421124</v>
       </c>
       <c r="C19">
-        <v>11.59004680606286</v>
+        <v>15.24127570737733</v>
       </c>
       <c r="D19">
-        <v>5.136971079632551</v>
+        <v>3.233655122767461</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.02105887029216</v>
+        <v>29.82810993290666</v>
       </c>
       <c r="G19">
-        <v>37.66773379805161</v>
+        <v>43.56198944275118</v>
       </c>
       <c r="H19">
-        <v>15.7741011155843</v>
+        <v>12.08992397067656</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.81303939042141</v>
+        <v>9.011492722138918</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.96020837116441</v>
+        <v>29.97608629182429</v>
       </c>
       <c r="C20">
-        <v>11.68282260378006</v>
+        <v>15.4557405161094</v>
       </c>
       <c r="D20">
-        <v>5.130472892556766</v>
+        <v>3.202551934614042</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.09074437577838</v>
+        <v>30.3095374973394</v>
       </c>
       <c r="G20">
-        <v>37.81095406331087</v>
+        <v>44.34097805967613</v>
       </c>
       <c r="H20">
-        <v>15.77104932296748</v>
+        <v>12.19948590972604</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.82782214146526</v>
+        <v>9.134409558638904</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.69677758755468</v>
+        <v>31.92648664692526</v>
       </c>
       <c r="C21">
-        <v>11.98775794178167</v>
+        <v>16.15964268692383</v>
       </c>
       <c r="D21">
-        <v>5.109222460137781</v>
+        <v>3.09813619694884</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.33663982491079</v>
+        <v>31.93742053641285</v>
       </c>
       <c r="G21">
-        <v>38.30818823394785</v>
+        <v>46.96805786878654</v>
       </c>
       <c r="H21">
-        <v>15.766055066531</v>
+        <v>12.58527967669534</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.88004761540128</v>
+        <v>9.546659938948311</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.16683569917738</v>
+        <v>33.15707993067491</v>
       </c>
       <c r="C22">
-        <v>12.18180226077912</v>
+        <v>16.60730462635131</v>
       </c>
       <c r="D22">
-        <v>5.095765827513285</v>
+        <v>3.029880924707032</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.50591538200412</v>
+        <v>33.00926085836753</v>
       </c>
       <c r="G22">
-        <v>38.64458444133684</v>
+        <v>48.69287596237481</v>
       </c>
       <c r="H22">
-        <v>15.76672528629686</v>
+        <v>12.85107130439217</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.9160542464615</v>
+        <v>9.815504746372369</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.91703909001526</v>
+        <v>32.50423978882545</v>
       </c>
       <c r="C23">
-        <v>12.07872946281898</v>
+        <v>16.3695058523795</v>
       </c>
       <c r="D23">
-        <v>5.102908536043866</v>
+        <v>3.066316047809262</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.41479906054627</v>
+        <v>32.43644752575934</v>
       </c>
       <c r="G23">
-        <v>38.46403261542311</v>
+        <v>47.77152788727019</v>
       </c>
       <c r="H23">
-        <v>15.76600675421431</v>
+        <v>12.70793177031623</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.89666745520245</v>
+        <v>9.672070379944998</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.94798882307217</v>
+        <v>29.94344511831213</v>
       </c>
       <c r="C24">
-        <v>11.67775277894075</v>
+        <v>15.44402584557582</v>
       </c>
       <c r="D24">
-        <v>5.130827543864912</v>
+        <v>3.204259439159671</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.08687285422834</v>
+        <v>30.28306084922222</v>
       </c>
       <c r="G24">
-        <v>37.80302746926195</v>
+        <v>44.29816346411323</v>
       </c>
       <c r="H24">
-        <v>15.77119716701373</v>
+        <v>12.19340392762264</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.8270006442442</v>
+        <v>9.127662104564918</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.85912482925665</v>
+        <v>26.98389549617585</v>
       </c>
       <c r="C25">
-        <v>11.22401568030816</v>
+        <v>14.39252479821265</v>
       </c>
       <c r="D25">
-        <v>5.16281253801179</v>
+        <v>3.353515466912937</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.77116935401684</v>
+        <v>27.99391906691374</v>
       </c>
       <c r="G25">
-        <v>37.14240429714759</v>
+        <v>40.58331647569162</v>
       </c>
       <c r="H25">
-        <v>15.79358699148334</v>
+        <v>11.69402482431512</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.76010040873632</v>
+        <v>8.538368559895806</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.62678331075783</v>
+        <v>14.77770854483697</v>
       </c>
       <c r="C2">
-        <v>13.57317221294942</v>
+        <v>7.627222089868707</v>
       </c>
       <c r="D2">
-        <v>3.464440440010277</v>
+        <v>5.030107311892869</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.33999943912361</v>
+        <v>22.98362778315672</v>
       </c>
       <c r="G2">
-        <v>37.87870002485764</v>
+        <v>31.25951863926543</v>
       </c>
       <c r="H2">
-        <v>11.3709555811155</v>
+        <v>2.339377729820428</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.136921233128633</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.91907155779624</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.15436460056219</v>
       </c>
       <c r="L2">
-        <v>8.103841793575018</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.81111895139583</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.559928280852844</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>13.33936588182226</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.91454549624984</v>
+        <v>13.85632914768305</v>
       </c>
       <c r="C3">
-        <v>12.99063213183245</v>
+        <v>7.317252118560249</v>
       </c>
       <c r="D3">
-        <v>3.540577627623313</v>
+        <v>4.924716136226667</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.24206006154787</v>
+        <v>22.42027348746645</v>
       </c>
       <c r="G3">
-        <v>36.07013955405518</v>
+        <v>30.44355408841143</v>
       </c>
       <c r="H3">
-        <v>11.1782092476063</v>
+        <v>2.543803647228621</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.308012834328158</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.85451946237618</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.99691789658561</v>
       </c>
       <c r="L3">
-        <v>7.809972433369527</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.08366859922203</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.181811461740509</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>13.47831401211408</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.80544968394816</v>
+        <v>13.25741280021867</v>
       </c>
       <c r="C4">
-        <v>12.61999462421427</v>
+        <v>7.121335373648134</v>
       </c>
       <c r="D4">
-        <v>3.587904947745379</v>
+        <v>4.858149631235495</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.58078610214338</v>
+        <v>22.07509149413271</v>
       </c>
       <c r="G4">
-        <v>34.97443055395964</v>
+        <v>29.94123277387193</v>
       </c>
       <c r="H4">
-        <v>11.07220257779292</v>
+        <v>2.674023113618639</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.417644663447735</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.81745030957513</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.90204939436853</v>
       </c>
       <c r="L4">
-        <v>7.630290019822987</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.61153640033958</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.940244969399863</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>13.56472936245636</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.33879644700621</v>
+        <v>12.99920034017515</v>
       </c>
       <c r="C5">
-        <v>12.46579564843777</v>
+        <v>7.043560112283787</v>
       </c>
       <c r="D5">
-        <v>3.607351659952021</v>
+        <v>4.831592391195745</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.31482173271734</v>
+        <v>21.92559365587036</v>
       </c>
       <c r="G5">
-        <v>34.5321340983119</v>
+        <v>29.72000656987478</v>
       </c>
       <c r="H5">
-        <v>11.0320146292006</v>
+        <v>2.728655573412583</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.466213728265135</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.80008107136654</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.85665212057579</v>
       </c>
       <c r="L5">
-        <v>7.557337202412404</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.41182693696139</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.839284940648971</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>13.59893951793258</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.26041740083446</v>
+        <v>12.94864397702679</v>
       </c>
       <c r="C6">
-        <v>12.44000333461987</v>
+        <v>7.034819985297075</v>
       </c>
       <c r="D6">
-        <v>3.610590890907313</v>
+        <v>4.828413853598824</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.27087908016605</v>
+        <v>21.8895734536387</v>
       </c>
       <c r="G6">
-        <v>34.4589616386785</v>
+        <v>29.66318190622738</v>
       </c>
       <c r="H6">
-        <v>11.02552043387635</v>
+        <v>2.738250088753321</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.47784978406552</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.79368797082461</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.84034086059963</v>
       </c>
       <c r="L6">
-        <v>7.545242188568436</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.37715106986743</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.822097786341137</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>13.60306185131048</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.79921591145418</v>
+        <v>13.23478830010136</v>
       </c>
       <c r="C7">
-        <v>12.61792769936369</v>
+        <v>7.131785926506821</v>
       </c>
       <c r="D7">
-        <v>3.588166543827073</v>
+        <v>4.861233282075349</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.57718461868677</v>
+        <v>22.04268507112009</v>
       </c>
       <c r="G7">
-        <v>34.96844781167766</v>
+        <v>29.88386459224223</v>
       </c>
       <c r="H7">
-        <v>11.07164852682595</v>
+        <v>2.675964200097443</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.427576473393017</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.80755858632923</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.877486288435</v>
       </c>
       <c r="L7">
-        <v>7.629304951277705</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.60584840482447</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.938128769768316</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>13.56093430415038</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.04829627121497</v>
+        <v>14.44342476539938</v>
       </c>
       <c r="C8">
-        <v>13.37505275425019</v>
+        <v>7.536142330861679</v>
       </c>
       <c r="D8">
-        <v>3.490581506885858</v>
+        <v>4.998717374200668</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.95891540478499</v>
+        <v>22.75036291804723</v>
       </c>
       <c r="G8">
-        <v>37.25232508812906</v>
+        <v>30.9089687211655</v>
       </c>
       <c r="H8">
-        <v>11.30188200385862</v>
+        <v>2.410412354834891</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.206889013786776</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.88366361663344</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.06847096639174</v>
       </c>
       <c r="L8">
-        <v>8.002403880555912</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.56185948983836</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.430627711435578</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>13.38163941434254</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.00794967915701</v>
+        <v>16.57902547805865</v>
       </c>
       <c r="C9">
-        <v>14.75381304122376</v>
+        <v>8.265369174704775</v>
       </c>
       <c r="D9">
-        <v>3.303121399926072</v>
+        <v>5.247027807590049</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.76042082978945</v>
+        <v>24.18928213337557</v>
       </c>
       <c r="G9">
-        <v>41.83036801453942</v>
+        <v>32.99230233181585</v>
       </c>
       <c r="H9">
-        <v>11.85509835828233</v>
+        <v>1.924213373325099</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.794662326878147</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.07061180819353</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.49905848109718</v>
       </c>
       <c r="L9">
-        <v>8.737075588411926</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.2391202308861</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.320127620407085</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>13.04544596712427</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.65361686979354</v>
+        <v>17.90613329922835</v>
       </c>
       <c r="C10">
-        <v>15.69941040267552</v>
+        <v>8.83046225303409</v>
       </c>
       <c r="D10">
-        <v>3.166810636057381</v>
+        <v>5.438592619847045</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.86489767383444</v>
+        <v>25.09540262422946</v>
       </c>
       <c r="G10">
-        <v>45.23835751629696</v>
+        <v>34.2463340820271</v>
       </c>
       <c r="H10">
-        <v>12.32852589825024</v>
+        <v>1.626172648186479</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.526332470237778</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.17274578201616</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.70473160194267</v>
       </c>
       <c r="L10">
-        <v>9.275617092106664</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.33519753511915</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.736642660995212</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.78375505266446</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.80270133445445</v>
+        <v>17.84217446268003</v>
       </c>
       <c r="C11">
-        <v>16.11475397901668</v>
+        <v>9.576530802526479</v>
       </c>
       <c r="D11">
-        <v>3.104901419892362</v>
+        <v>5.686209750594642</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.83148179200428</v>
+        <v>24.35084162682672</v>
       </c>
       <c r="G11">
-        <v>46.79738582805639</v>
+        <v>32.76294773232441</v>
       </c>
       <c r="H11">
-        <v>12.55949530314447</v>
+        <v>2.705224539989086</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.519115622714987</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.82861556964674</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.84169621978201</v>
       </c>
       <c r="L11">
-        <v>9.519980667459622</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.70266487466343</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.356361848186495</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.53181034159499</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.23024584396752</v>
+        <v>17.53534783681667</v>
       </c>
       <c r="C12">
-        <v>16.26990939077135</v>
+        <v>10.1225977335716</v>
       </c>
       <c r="D12">
-        <v>3.081456467522525</v>
+        <v>5.860976205068242</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.19885448068658</v>
+        <v>23.55670117776119</v>
       </c>
       <c r="G12">
-        <v>47.38908337054048</v>
+        <v>31.29579539958353</v>
       </c>
       <c r="H12">
-        <v>12.64929234136578</v>
+        <v>4.123486165727371</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.522478075405098</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.52653050832739</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.10781203313084</v>
       </c>
       <c r="L12">
-        <v>9.612414472044325</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.79391696602521</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.171829719660061</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.40294904180153</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.13849994733266</v>
+        <v>16.9933818839057</v>
       </c>
       <c r="C13">
-        <v>16.23658821063915</v>
+        <v>10.56657060356073</v>
       </c>
       <c r="D13">
-        <v>3.086506047754959</v>
+        <v>5.995448215962533</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.1196730978576</v>
+        <v>22.61766980986896</v>
       </c>
       <c r="G13">
-        <v>47.2615890529786</v>
+        <v>29.64822710899233</v>
       </c>
       <c r="H13">
-        <v>12.62984760978808</v>
+        <v>5.565611980446055</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.523393922479035</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.22262099926401</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.39277107127378</v>
       </c>
       <c r="L13">
-        <v>9.592511723528698</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.6776449701853</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.086509716279867</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.35357618167401</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.83802631911217</v>
+        <v>16.4894546806441</v>
       </c>
       <c r="C14">
-        <v>16.12756123538433</v>
+        <v>10.84279870173629</v>
       </c>
       <c r="D14">
-        <v>3.102972699600871</v>
+        <v>6.073663282960945</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.86167835680012</v>
+        <v>21.88073539861941</v>
       </c>
       <c r="G14">
-        <v>46.84603763134429</v>
+        <v>28.3894362785694</v>
       </c>
       <c r="H14">
-        <v>12.56683563667733</v>
+        <v>6.582719421561187</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.57676723090342</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.00730136079618</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.89989733993311</v>
       </c>
       <c r="L14">
-        <v>9.527587294501801</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.50034365710883</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.424035339382328</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.35678171504078</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.65299674165365</v>
+        <v>16.30560862810882</v>
       </c>
       <c r="C15">
-        <v>16.06050258772444</v>
+        <v>10.8895600771021</v>
       </c>
       <c r="D15">
-        <v>3.113058393091231</v>
+        <v>6.084499214926117</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.70382660100611</v>
+        <v>21.6611875210281</v>
       </c>
       <c r="G15">
-        <v>46.59167775819753</v>
+        <v>28.0279510006719</v>
       </c>
       <c r="H15">
-        <v>12.52854575126275</v>
+        <v>6.819380916285745</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.605076051081547</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.952064321236936</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.77706596326248</v>
       </c>
       <c r="L15">
-        <v>9.487805927033191</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.41103217012349</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.27853994110587</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.37086265517577</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.57744600645005</v>
+        <v>15.81432267826935</v>
       </c>
       <c r="C16">
-        <v>15.67196858110127</v>
+        <v>10.59604493912139</v>
       </c>
       <c r="D16">
-        <v>3.170857190818003</v>
+        <v>5.980185761555753</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.80191502060164</v>
+        <v>21.40752783844909</v>
       </c>
       <c r="G16">
-        <v>45.13664999997217</v>
+        <v>27.72639347716476</v>
       </c>
       <c r="H16">
-        <v>12.31375301953726</v>
+        <v>6.621157189624785</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.716623982164644</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.96105558866811</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.81761500849296</v>
       </c>
       <c r="L16">
-        <v>9.259633455732279</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.97696418090894</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.267148665269614</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.48513335770286</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.90385062019307</v>
+        <v>15.71465554525196</v>
       </c>
       <c r="C17">
-        <v>15.42981878636072</v>
+        <v>10.21048544261201</v>
       </c>
       <c r="D17">
-        <v>3.206328900638591</v>
+        <v>5.856494492543289</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.25097876723413</v>
+        <v>21.61550554127389</v>
       </c>
       <c r="G17">
-        <v>44.24628041590011</v>
+        <v>28.18174373397849</v>
       </c>
       <c r="H17">
-        <v>12.18604300965202</v>
+        <v>5.898513381660853</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.774934542399029</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.08288455429075</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.10817128004253</v>
       </c>
       <c r="L17">
-        <v>9.11948421110168</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.73549048895055</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.590606482532629</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.57057690955083</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.51127642613723</v>
+        <v>15.95738981008431</v>
       </c>
       <c r="C18">
-        <v>15.28914498100669</v>
+        <v>9.707736956780055</v>
       </c>
       <c r="D18">
-        <v>3.226741514809231</v>
+        <v>5.70322330265696</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.93495944748759</v>
+        <v>22.26176466227895</v>
       </c>
       <c r="G18">
-        <v>43.7349712495204</v>
+        <v>29.37409887737029</v>
       </c>
       <c r="H18">
-        <v>12.11405066868388</v>
+        <v>4.668142873111549</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.780184496033522</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.32219879255522</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.67184212582377</v>
       </c>
       <c r="L18">
-        <v>9.038815297159424</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.64116595857928</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.361428256319335</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.65389229579998</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.37746778421124</v>
+        <v>16.42284222668335</v>
       </c>
       <c r="C19">
-        <v>15.24127570737733</v>
+        <v>9.209529090551353</v>
       </c>
       <c r="D19">
-        <v>3.233655122767461</v>
+        <v>5.552427828147667</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.82810993290666</v>
+        <v>23.15383547937253</v>
       </c>
       <c r="G19">
-        <v>43.56198944275118</v>
+        <v>30.97150794206619</v>
       </c>
       <c r="H19">
-        <v>12.08992397067656</v>
+        <v>3.21874925026339</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.759226632986088</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.62347530439386</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.39073432447366</v>
       </c>
       <c r="L19">
-        <v>9.011492722138918</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.66991939090352</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.541987399822117</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.74263390368678</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.97608629182429</v>
+        <v>17.51813583279789</v>
       </c>
       <c r="C20">
-        <v>15.4557405161094</v>
+        <v>8.718208983178512</v>
       </c>
       <c r="D20">
-        <v>3.202551934614042</v>
+        <v>5.400418015201383</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.3095374973394</v>
+        <v>24.76818473397098</v>
       </c>
       <c r="G20">
-        <v>44.34097805967613</v>
+        <v>33.75857484525422</v>
       </c>
       <c r="H20">
-        <v>12.19948590972604</v>
+        <v>1.705506638581691</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.629007243960585</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.11448170269728</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.57501912847967</v>
       </c>
       <c r="L20">
-        <v>9.134409558638904</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.04750295191416</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.619217517296459</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.83988552442927</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.92648664692526</v>
+        <v>18.60849690447317</v>
       </c>
       <c r="C21">
-        <v>16.15964268692383</v>
+        <v>9.056562882232267</v>
       </c>
       <c r="D21">
-        <v>3.09813619694884</v>
+        <v>5.515234929785217</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.93742053641285</v>
+        <v>25.67901819898945</v>
       </c>
       <c r="G21">
-        <v>46.96805786878654</v>
+        <v>35.10281959484644</v>
       </c>
       <c r="H21">
-        <v>12.58527967669534</v>
+        <v>1.691173410673914</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.601172941756159</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.27143111292951</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.91814778481022</v>
       </c>
       <c r="L21">
-        <v>9.546659938948311</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.87044617691804</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.21298393462685</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.66919560459979</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.15707993067491</v>
+        <v>19.28723860167701</v>
       </c>
       <c r="C22">
-        <v>16.60730462635131</v>
+        <v>9.287377851563964</v>
       </c>
       <c r="D22">
-        <v>3.029880924707032</v>
+        <v>5.592872989446255</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.00926085836753</v>
+        <v>26.23740301305542</v>
       </c>
       <c r="G22">
-        <v>48.69287596237481</v>
+        <v>35.91494948559962</v>
       </c>
       <c r="H22">
-        <v>12.85107130439217</v>
+        <v>1.849583923804045</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.728409951003889</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.36576909033448</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.11731283031862</v>
       </c>
       <c r="L22">
-        <v>9.815504746372369</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.38291766392086</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.49575241917685</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.55424434887878</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.50423978882545</v>
+        <v>18.93838731568971</v>
       </c>
       <c r="C23">
-        <v>16.3695058523795</v>
+        <v>9.153200599636122</v>
       </c>
       <c r="D23">
-        <v>3.066316047809262</v>
+        <v>5.547638313514909</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.43644752575934</v>
+        <v>25.97033500476515</v>
       </c>
       <c r="G23">
-        <v>47.77152788727019</v>
+        <v>35.53647996305266</v>
       </c>
       <c r="H23">
-        <v>12.70793177031623</v>
+        <v>1.76646599379988</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.655716939646231</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.32584018073138</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.03706522943411</v>
       </c>
       <c r="L23">
-        <v>9.672070379944998</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.11410912938036</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.34635533684413</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.61988701032977</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.94344511831213</v>
+        <v>17.58425522392757</v>
       </c>
       <c r="C24">
-        <v>15.44402584557582</v>
+        <v>8.65330025140233</v>
       </c>
       <c r="D24">
-        <v>3.204259439159671</v>
+        <v>5.378654213001603</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.28306084922222</v>
+        <v>24.90484254396124</v>
       </c>
       <c r="G24">
-        <v>44.29816346411323</v>
+        <v>34.00612056892558</v>
       </c>
       <c r="H24">
-        <v>12.19340392762264</v>
+        <v>1.680928241031681</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.606500471294175</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.16333108487413</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.69577086303791</v>
       </c>
       <c r="L24">
-        <v>9.127662104564918</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.04762866771693</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.760037793976084</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.86285362736371</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.98389549617585</v>
+        <v>16.00076646400359</v>
       </c>
       <c r="C25">
-        <v>14.39252479821265</v>
+        <v>8.09180052672013</v>
       </c>
       <c r="D25">
-        <v>3.353515466912937</v>
+        <v>5.187731946190162</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.99391906691374</v>
+        <v>23.7502404347185</v>
       </c>
       <c r="G25">
-        <v>40.58331647569162</v>
+        <v>32.3416305868098</v>
       </c>
       <c r="H25">
-        <v>11.69402482431512</v>
+        <v>2.053868960727802</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.919898984830864</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.00086835259132</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.33938816371842</v>
       </c>
       <c r="L25">
-        <v>8.538368559895806</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.80237464146222</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>9.087029267670141</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>13.12856134381288</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.77770854483697</v>
+        <v>14.2116798216528</v>
       </c>
       <c r="C2">
-        <v>7.627222089868707</v>
+        <v>7.621685062564305</v>
       </c>
       <c r="D2">
-        <v>5.030107311892869</v>
+        <v>5.074051792641038</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.98362778315672</v>
+        <v>21.93408736308429</v>
       </c>
       <c r="G2">
-        <v>31.25951863926543</v>
+        <v>28.98596763366221</v>
       </c>
       <c r="H2">
-        <v>2.339377729820428</v>
+        <v>2.234377322756372</v>
       </c>
       <c r="I2">
-        <v>3.136921233128633</v>
+        <v>3.011102538561595</v>
       </c>
       <c r="J2">
-        <v>10.91907155779624</v>
+        <v>10.82884494133267</v>
       </c>
       <c r="K2">
-        <v>18.15436460056219</v>
+        <v>17.15389226207764</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.05822604455694</v>
       </c>
       <c r="M2">
-        <v>11.81111895139583</v>
+        <v>11.38881584240456</v>
       </c>
       <c r="N2">
-        <v>8.559928280852844</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.76947864324934</v>
       </c>
       <c r="P2">
-        <v>13.33936588182226</v>
+        <v>8.623458908178465</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.0898168029177</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.85632914768305</v>
+        <v>13.34249167761649</v>
       </c>
       <c r="C3">
-        <v>7.317252118560249</v>
+        <v>7.241527347819845</v>
       </c>
       <c r="D3">
-        <v>4.924716136226667</v>
+        <v>4.940889225659295</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.42027348746645</v>
+        <v>21.46592612162281</v>
       </c>
       <c r="G3">
-        <v>30.44355408841143</v>
+        <v>28.37640857014719</v>
       </c>
       <c r="H3">
-        <v>2.543803647228621</v>
+        <v>2.422489462256184</v>
       </c>
       <c r="I3">
-        <v>3.308012834328158</v>
+        <v>3.161562307825475</v>
       </c>
       <c r="J3">
-        <v>10.85451946237618</v>
+        <v>10.75728249143176</v>
       </c>
       <c r="K3">
-        <v>17.99691789658561</v>
+        <v>17.07139524871137</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.11040189740572</v>
       </c>
       <c r="M3">
-        <v>11.08366859922203</v>
+        <v>11.22598513989856</v>
       </c>
       <c r="N3">
-        <v>8.181811461740509</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.0592176507679</v>
       </c>
       <c r="P3">
-        <v>13.47831401211408</v>
+        <v>8.257352864490649</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.23040970966886</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.25741280021867</v>
+        <v>12.77634084530909</v>
       </c>
       <c r="C4">
-        <v>7.121335373648134</v>
+        <v>7.000839185696496</v>
       </c>
       <c r="D4">
-        <v>4.858149631235495</v>
+        <v>4.85694376484762</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.07509149413271</v>
+        <v>21.1790963459486</v>
       </c>
       <c r="G4">
-        <v>29.94123277387193</v>
+        <v>28.00549575303772</v>
       </c>
       <c r="H4">
-        <v>2.674023113618639</v>
+        <v>2.542405686336818</v>
       </c>
       <c r="I4">
-        <v>3.417644663447735</v>
+        <v>3.258342961983791</v>
       </c>
       <c r="J4">
-        <v>10.81745030957513</v>
+        <v>10.71360827190177</v>
       </c>
       <c r="K4">
-        <v>17.90204939436853</v>
+        <v>17.02170991212419</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.14025126013942</v>
       </c>
       <c r="M4">
-        <v>10.61153640033958</v>
+        <v>11.1429448015438</v>
       </c>
       <c r="N4">
-        <v>7.940244969399863</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.59827427713652</v>
       </c>
       <c r="P4">
-        <v>13.56472936245636</v>
+        <v>8.023819323977335</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.31792511929362</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.99920034017515</v>
+        <v>12.53174409100525</v>
       </c>
       <c r="C5">
-        <v>7.043560112283787</v>
+        <v>6.905287328543275</v>
       </c>
       <c r="D5">
-        <v>4.831592391195745</v>
+        <v>4.823333706346515</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.92559365587036</v>
+        <v>21.05359113522578</v>
       </c>
       <c r="G5">
-        <v>29.72000656987478</v>
+        <v>27.83941403098444</v>
       </c>
       <c r="H5">
-        <v>2.728655573412583</v>
+        <v>2.592747701918009</v>
       </c>
       <c r="I5">
-        <v>3.466213728265135</v>
+        <v>3.302075845559908</v>
       </c>
       <c r="J5">
-        <v>10.80008107136654</v>
+        <v>10.69305789916222</v>
       </c>
       <c r="K5">
-        <v>17.85665212057579</v>
+        <v>16.99492808321509</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.14589908080272</v>
       </c>
       <c r="M5">
-        <v>10.41182693696139</v>
+        <v>11.10920507351046</v>
       </c>
       <c r="N5">
-        <v>7.839284940648971</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.40332743008728</v>
       </c>
       <c r="P5">
-        <v>13.59893951793258</v>
+        <v>7.92631194978653</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.35284541781645</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.94864397702679</v>
+        <v>12.4835928001847</v>
       </c>
       <c r="C6">
-        <v>7.034819985297075</v>
+        <v>6.894620144472588</v>
       </c>
       <c r="D6">
-        <v>4.828413853598824</v>
+        <v>4.819103321465146</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.8895734536387</v>
+        <v>21.02190793086661</v>
       </c>
       <c r="G6">
-        <v>29.66318190622738</v>
+        <v>27.79248031849787</v>
       </c>
       <c r="H6">
-        <v>2.738250088753321</v>
+        <v>2.60160394446791</v>
       </c>
       <c r="I6">
-        <v>3.47784978406552</v>
+        <v>3.313499447301202</v>
       </c>
       <c r="J6">
-        <v>10.79368797082461</v>
+        <v>10.68619793799424</v>
       </c>
       <c r="K6">
-        <v>17.84034086059963</v>
+        <v>16.9822209491091</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.13952585060381</v>
       </c>
       <c r="M6">
-        <v>10.37715106986743</v>
+        <v>11.09863922732731</v>
       </c>
       <c r="N6">
-        <v>7.822097786341137</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.36949502318151</v>
       </c>
       <c r="P6">
-        <v>13.60306185131048</v>
+        <v>7.909719160772926</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.35738083503201</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.23478830010136</v>
+        <v>12.74996766485163</v>
       </c>
       <c r="C7">
-        <v>7.131785926506821</v>
+        <v>7.007161016762857</v>
       </c>
       <c r="D7">
-        <v>4.861233282075349</v>
+        <v>4.862815537668454</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.04268507112009</v>
+        <v>21.12899894587808</v>
       </c>
       <c r="G7">
-        <v>29.88386459224223</v>
+        <v>28.02433104820762</v>
       </c>
       <c r="H7">
-        <v>2.675964200097443</v>
+        <v>2.544724257213229</v>
       </c>
       <c r="I7">
-        <v>3.427576473393017</v>
+        <v>3.270373435319601</v>
       </c>
       <c r="J7">
-        <v>10.80755858632923</v>
+        <v>10.66053681748503</v>
       </c>
       <c r="K7">
-        <v>17.877486288435</v>
+        <v>16.98925273726478</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.11257151561933</v>
       </c>
       <c r="M7">
-        <v>10.60584840482447</v>
+        <v>11.12159208821392</v>
       </c>
       <c r="N7">
-        <v>7.938128769768316</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.58662825379119</v>
       </c>
       <c r="P7">
-        <v>13.56093430415038</v>
+        <v>8.021463217096519</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.31329666705979</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.44342476539938</v>
+        <v>13.88247716649517</v>
       </c>
       <c r="C8">
-        <v>7.536142330861679</v>
+        <v>7.489103792455699</v>
       </c>
       <c r="D8">
-        <v>4.998717374200668</v>
+        <v>5.042036888461161</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.75036291804723</v>
+        <v>21.67368965153825</v>
       </c>
       <c r="G8">
-        <v>30.9089687211655</v>
+        <v>28.94721368069966</v>
       </c>
       <c r="H8">
-        <v>2.410412354834891</v>
+        <v>2.301295800610282</v>
       </c>
       <c r="I8">
-        <v>3.206889013786776</v>
+        <v>3.077864059154064</v>
       </c>
       <c r="J8">
-        <v>10.88366361663344</v>
+        <v>10.65048457279922</v>
       </c>
       <c r="K8">
-        <v>18.06847096639174</v>
+        <v>17.0647134637262</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.02712452013994</v>
       </c>
       <c r="M8">
-        <v>11.56185948983836</v>
+        <v>11.28646703700814</v>
       </c>
       <c r="N8">
-        <v>8.430627711435578</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.50723225682318</v>
       </c>
       <c r="P8">
-        <v>13.38163941434254</v>
+        <v>8.497267409188899</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.12870852532886</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.57902547805865</v>
+        <v>15.89055498730062</v>
       </c>
       <c r="C9">
-        <v>8.265369174704775</v>
+        <v>8.376014230568835</v>
       </c>
       <c r="D9">
-        <v>5.247027807590049</v>
+        <v>5.359123001076835</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.18928213337557</v>
+        <v>22.86290699830172</v>
       </c>
       <c r="G9">
-        <v>32.99230233181585</v>
+        <v>30.59572827921695</v>
       </c>
       <c r="H9">
-        <v>1.924213373325099</v>
+        <v>1.854643641219668</v>
       </c>
       <c r="I9">
-        <v>2.794662326878147</v>
+        <v>2.714848960449129</v>
       </c>
       <c r="J9">
-        <v>11.07061180819353</v>
+        <v>10.80547621128606</v>
       </c>
       <c r="K9">
-        <v>18.49905848109718</v>
+        <v>17.29515689214522</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.90419927229438</v>
       </c>
       <c r="M9">
-        <v>13.2391202308861</v>
+        <v>11.79004454541371</v>
       </c>
       <c r="N9">
-        <v>9.320127620407085</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.14207001967713</v>
       </c>
       <c r="P9">
-        <v>13.04544596712427</v>
+        <v>9.360102645938925</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.78722269881855</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.90613329922835</v>
+        <v>17.14331370221672</v>
       </c>
       <c r="C10">
-        <v>8.83046225303409</v>
+        <v>9.020702066227802</v>
       </c>
       <c r="D10">
-        <v>5.438592619847045</v>
+        <v>5.613299381140368</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.09540262422946</v>
+        <v>23.50807981252778</v>
       </c>
       <c r="G10">
-        <v>34.2463340820271</v>
+        <v>31.97622389066201</v>
       </c>
       <c r="H10">
-        <v>1.626172648186479</v>
+        <v>1.586306266885992</v>
       </c>
       <c r="I10">
-        <v>2.526332470237778</v>
+        <v>2.498102274823608</v>
       </c>
       <c r="J10">
-        <v>11.17274578201616</v>
+        <v>10.64496166596687</v>
       </c>
       <c r="K10">
-        <v>18.70473160194267</v>
+        <v>17.31718650031387</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.69296095937452</v>
       </c>
       <c r="M10">
-        <v>14.33519753511915</v>
+        <v>12.10673575897021</v>
       </c>
       <c r="N10">
-        <v>9.736642660995212</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.18334549135252</v>
       </c>
       <c r="P10">
-        <v>12.78375505266446</v>
+        <v>9.759175707456755</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.52226648950385</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.84217446268003</v>
+        <v>17.09730886799171</v>
       </c>
       <c r="C11">
-        <v>9.576530802526479</v>
+        <v>9.770026015079669</v>
       </c>
       <c r="D11">
-        <v>5.686209750594642</v>
+        <v>5.913881171384903</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.35084162682672</v>
+        <v>22.61979227743813</v>
       </c>
       <c r="G11">
-        <v>32.76294773232441</v>
+        <v>31.45063171936516</v>
       </c>
       <c r="H11">
-        <v>2.705224539989086</v>
+        <v>2.686953838608884</v>
       </c>
       <c r="I11">
-        <v>2.519115622714987</v>
+        <v>2.560868618209451</v>
       </c>
       <c r="J11">
-        <v>10.82861556964674</v>
+        <v>9.888626095963224</v>
       </c>
       <c r="K11">
-        <v>17.84169621978201</v>
+        <v>16.44107856700653</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.9702135079756</v>
       </c>
       <c r="M11">
-        <v>14.70266487466343</v>
+        <v>11.53694393777157</v>
       </c>
       <c r="N11">
-        <v>8.356361848186495</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.49276557188902</v>
       </c>
       <c r="P11">
-        <v>12.53181034159499</v>
+        <v>8.374782908454034</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.32494359593071</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.53534783681667</v>
+        <v>16.82996350492671</v>
       </c>
       <c r="C12">
-        <v>10.1225977335716</v>
+        <v>10.29855869590647</v>
       </c>
       <c r="D12">
-        <v>5.860976205068242</v>
+        <v>6.109755470459188</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.55670117776119</v>
+        <v>21.82006682840249</v>
       </c>
       <c r="G12">
-        <v>31.29579539958353</v>
+        <v>30.52219987153599</v>
       </c>
       <c r="H12">
-        <v>4.123486165727371</v>
+        <v>4.111751276924454</v>
       </c>
       <c r="I12">
-        <v>2.522478075405098</v>
+        <v>2.562452749447953</v>
       </c>
       <c r="J12">
-        <v>10.52653050832739</v>
+        <v>9.462715380539473</v>
       </c>
       <c r="K12">
-        <v>17.10781203313084</v>
+        <v>15.77147942261843</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.4729471175044</v>
       </c>
       <c r="M12">
-        <v>14.79391696602521</v>
+        <v>11.03312118511444</v>
       </c>
       <c r="N12">
-        <v>7.171829719660061</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.56264171239103</v>
       </c>
       <c r="P12">
-        <v>12.40294904180153</v>
+        <v>7.191011378334294</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.24694337542375</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.9933818839057</v>
+        <v>16.35424329542051</v>
       </c>
       <c r="C13">
-        <v>10.56657060356073</v>
+        <v>10.73655335947255</v>
       </c>
       <c r="D13">
-        <v>5.995448215962533</v>
+        <v>6.233670802840227</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.61766980986896</v>
+        <v>21.02579207375951</v>
       </c>
       <c r="G13">
-        <v>29.64822710899233</v>
+        <v>28.95723680809872</v>
       </c>
       <c r="H13">
-        <v>5.565611980446055</v>
+        <v>5.554727220868502</v>
       </c>
       <c r="I13">
-        <v>2.523393922479035</v>
+        <v>2.525567529503983</v>
       </c>
       <c r="J13">
-        <v>10.22262099926401</v>
+        <v>9.298683130207728</v>
       </c>
       <c r="K13">
-        <v>16.39277107127378</v>
+        <v>15.20298255078471</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.09219292276435</v>
       </c>
       <c r="M13">
-        <v>14.6776449701853</v>
+        <v>10.54313222161465</v>
       </c>
       <c r="N13">
-        <v>6.086509716279867</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.46346488080792</v>
       </c>
       <c r="P13">
-        <v>12.35357618167401</v>
+        <v>6.112053611681791</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.24309036951967</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.4894546806441</v>
+        <v>15.91540643558226</v>
       </c>
       <c r="C14">
-        <v>10.84279870173629</v>
+        <v>11.0155170856796</v>
       </c>
       <c r="D14">
-        <v>6.073663282960945</v>
+        <v>6.289437343693375</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.88073539861941</v>
+        <v>20.4565966811131</v>
       </c>
       <c r="G14">
-        <v>28.3894362785694</v>
+        <v>27.56135004118032</v>
       </c>
       <c r="H14">
-        <v>6.582719421561187</v>
+        <v>6.571214251445193</v>
       </c>
       <c r="I14">
-        <v>2.57676723090342</v>
+        <v>2.537577213301997</v>
       </c>
       <c r="J14">
-        <v>10.00730136079618</v>
+        <v>9.28301350944645</v>
       </c>
       <c r="K14">
-        <v>15.89989733993311</v>
+        <v>14.84514573235631</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.86916212919421</v>
       </c>
       <c r="M14">
-        <v>14.50034365710883</v>
+        <v>10.20560071018479</v>
       </c>
       <c r="N14">
-        <v>5.424035339382328</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.31529545551495</v>
       </c>
       <c r="P14">
-        <v>12.35678171504078</v>
+        <v>5.457312902901932</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.27168249417369</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.30560862810882</v>
+        <v>15.75569206333355</v>
       </c>
       <c r="C15">
-        <v>10.8895600771021</v>
+        <v>11.06781760665833</v>
       </c>
       <c r="D15">
-        <v>6.084499214926117</v>
+        <v>6.288581096720954</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.6611875210281</v>
+        <v>20.3064323768952</v>
       </c>
       <c r="G15">
-        <v>28.0279510006719</v>
+        <v>27.08537051945041</v>
       </c>
       <c r="H15">
-        <v>6.819380916285745</v>
+        <v>6.807218682931894</v>
       </c>
       <c r="I15">
-        <v>2.605076051081547</v>
+        <v>2.562588946836092</v>
       </c>
       <c r="J15">
-        <v>9.952064321236936</v>
+        <v>9.319820697338388</v>
       </c>
       <c r="K15">
-        <v>15.77706596326248</v>
+        <v>14.76912010422935</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.82828981617157</v>
       </c>
       <c r="M15">
-        <v>14.41103217012349</v>
+        <v>10.12145713341963</v>
       </c>
       <c r="N15">
-        <v>5.27853994110587</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.24059531758098</v>
       </c>
       <c r="P15">
-        <v>12.37086265517577</v>
+        <v>5.315113956813089</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.28988401333144</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.81432267826935</v>
+        <v>15.30967733370732</v>
       </c>
       <c r="C16">
-        <v>10.59604493912139</v>
+        <v>10.81191039659047</v>
       </c>
       <c r="D16">
-        <v>5.980185761555753</v>
+        <v>6.132338636499116</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.40752783844909</v>
+        <v>20.28738164044517</v>
       </c>
       <c r="G16">
-        <v>27.72639347716476</v>
+        <v>26.12729902472414</v>
       </c>
       <c r="H16">
-        <v>6.621157189624785</v>
+        <v>6.603444720272887</v>
       </c>
       <c r="I16">
-        <v>2.716623982164644</v>
+        <v>2.65638196364735</v>
       </c>
       <c r="J16">
-        <v>9.96105558866811</v>
+        <v>9.699660421840479</v>
       </c>
       <c r="K16">
-        <v>15.81761500849296</v>
+        <v>14.9226171710259</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.99128748891105</v>
       </c>
       <c r="M16">
-        <v>13.97696418090894</v>
+        <v>10.14608809262104</v>
       </c>
       <c r="N16">
-        <v>5.267148665269614</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.86963681231846</v>
       </c>
       <c r="P16">
-        <v>12.48513335770286</v>
+        <v>5.315819271981548</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.38802119446209</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.71465554525196</v>
+        <v>15.20032520291621</v>
       </c>
       <c r="C17">
-        <v>10.21048544261201</v>
+        <v>10.44105475268131</v>
       </c>
       <c r="D17">
-        <v>5.856494492543289</v>
+        <v>5.986750330724337</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.61550554127389</v>
+        <v>20.56006926069137</v>
       </c>
       <c r="G17">
-        <v>28.18174373397849</v>
+        <v>26.25245989188551</v>
       </c>
       <c r="H17">
-        <v>5.898513381660853</v>
+        <v>5.875607575566947</v>
       </c>
       <c r="I17">
-        <v>2.774934542399029</v>
+        <v>2.70639674591458</v>
       </c>
       <c r="J17">
-        <v>10.08288455429075</v>
+        <v>9.966273956204756</v>
       </c>
       <c r="K17">
-        <v>16.10817128004253</v>
+        <v>15.22140946227979</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.23823968723309</v>
       </c>
       <c r="M17">
-        <v>13.73549048895055</v>
+        <v>10.33144813545561</v>
       </c>
       <c r="N17">
-        <v>5.590606482532629</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.65360946424404</v>
       </c>
       <c r="P17">
-        <v>12.57057690955083</v>
+        <v>5.642978108996124</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.45295069206195</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.95738981008431</v>
+        <v>15.39697678089707</v>
       </c>
       <c r="C18">
-        <v>9.707736956780055</v>
+        <v>9.942325391452552</v>
       </c>
       <c r="D18">
-        <v>5.70322330265696</v>
+        <v>5.827317617803518</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.26176466227895</v>
+        <v>21.16881444628139</v>
       </c>
       <c r="G18">
-        <v>29.37409887737029</v>
+        <v>27.20053731452031</v>
       </c>
       <c r="H18">
-        <v>4.668142873111549</v>
+        <v>4.638574476639574</v>
       </c>
       <c r="I18">
-        <v>2.780184496033522</v>
+        <v>2.708173960828633</v>
       </c>
       <c r="J18">
-        <v>10.32219879255522</v>
+        <v>10.23970784601091</v>
       </c>
       <c r="K18">
-        <v>16.67184212582377</v>
+        <v>15.72080945458682</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.62099878525828</v>
       </c>
       <c r="M18">
-        <v>13.64116595857928</v>
+        <v>10.70046879169459</v>
       </c>
       <c r="N18">
-        <v>6.361428256319335</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.56477217407142</v>
       </c>
       <c r="P18">
-        <v>12.65389229579998</v>
+        <v>6.410652527961544</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.50641041393516</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.42284222668335</v>
+        <v>15.79823220502898</v>
       </c>
       <c r="C19">
-        <v>9.209529090551353</v>
+        <v>9.438028162502334</v>
       </c>
       <c r="D19">
-        <v>5.552427828147667</v>
+        <v>5.679211286105462</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.15383547937253</v>
+        <v>21.961672142652</v>
       </c>
       <c r="G19">
-        <v>30.97150794206619</v>
+        <v>28.58117529332775</v>
       </c>
       <c r="H19">
-        <v>3.21874925026339</v>
+        <v>3.179238058878087</v>
       </c>
       <c r="I19">
-        <v>2.759226632986088</v>
+        <v>2.691884945472598</v>
       </c>
       <c r="J19">
-        <v>10.62347530439386</v>
+        <v>10.51462043540531</v>
       </c>
       <c r="K19">
-        <v>17.39073432447366</v>
+        <v>16.33019769981374</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.07531217816638</v>
       </c>
       <c r="M19">
-        <v>13.66991939090352</v>
+        <v>11.17496128250593</v>
       </c>
       <c r="N19">
-        <v>7.541987399822117</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.58697652460242</v>
       </c>
       <c r="P19">
-        <v>12.74263390368678</v>
+        <v>7.584178126874996</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.55756379027003</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.51813583279789</v>
+        <v>16.78239358747119</v>
       </c>
       <c r="C20">
-        <v>8.718208983178512</v>
+        <v>8.915907002728153</v>
       </c>
       <c r="D20">
-        <v>5.400418015201383</v>
+        <v>5.550940096400353</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.76818473397098</v>
+        <v>23.31326231793578</v>
       </c>
       <c r="G20">
-        <v>33.75857484525422</v>
+        <v>31.2185943891196</v>
       </c>
       <c r="H20">
-        <v>1.705506638581691</v>
+        <v>1.656267600980443</v>
       </c>
       <c r="I20">
-        <v>2.629007243960585</v>
+        <v>2.581524934272515</v>
       </c>
       <c r="J20">
-        <v>11.11448170269728</v>
+        <v>10.80364261310442</v>
       </c>
       <c r="K20">
-        <v>18.57501912847967</v>
+        <v>17.27399606266511</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.72111271420888</v>
       </c>
       <c r="M20">
-        <v>14.04750295191416</v>
+        <v>11.99078621549211</v>
       </c>
       <c r="N20">
-        <v>9.619217517296459</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.92729049322871</v>
       </c>
       <c r="P20">
-        <v>12.83988552442927</v>
+        <v>9.647125573768244</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.58749128408832</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.60849690447317</v>
+        <v>17.7598779349813</v>
       </c>
       <c r="C21">
-        <v>9.056562882232267</v>
+        <v>9.200375553499757</v>
       </c>
       <c r="D21">
-        <v>5.515234929785217</v>
+        <v>5.75994030147633</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.67901819898945</v>
+        <v>23.68570010321237</v>
       </c>
       <c r="G21">
-        <v>35.10281959484644</v>
+        <v>33.88570746587783</v>
       </c>
       <c r="H21">
-        <v>1.691173410673914</v>
+        <v>1.709827466943649</v>
       </c>
       <c r="I21">
-        <v>2.601172941756159</v>
+        <v>2.630943260268142</v>
       </c>
       <c r="J21">
-        <v>11.27143111292951</v>
+        <v>10.01886442293277</v>
       </c>
       <c r="K21">
-        <v>18.91814778481022</v>
+        <v>17.27839332964628</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.55217780790237</v>
       </c>
       <c r="M21">
-        <v>14.87044617691804</v>
+        <v>12.23620962637388</v>
       </c>
       <c r="N21">
-        <v>10.21298393462685</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.61973439928057</v>
       </c>
       <c r="P21">
-        <v>12.66919560459979</v>
+        <v>10.22341366959115</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.380862800574</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.28723860167701</v>
+        <v>18.35020245216247</v>
       </c>
       <c r="C22">
-        <v>9.287377851563964</v>
+        <v>9.392695173551401</v>
       </c>
       <c r="D22">
-        <v>5.592872989446255</v>
+        <v>5.901890584863271</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.23740301305542</v>
+        <v>23.88111806038096</v>
       </c>
       <c r="G22">
-        <v>35.91494948559962</v>
+        <v>35.66889652802569</v>
       </c>
       <c r="H22">
-        <v>1.849583923804045</v>
+        <v>1.849451995930628</v>
       </c>
       <c r="I22">
-        <v>2.728409951003889</v>
+        <v>2.734173539647753</v>
       </c>
       <c r="J22">
-        <v>11.36576909033448</v>
+        <v>9.491258483133523</v>
       </c>
       <c r="K22">
-        <v>19.11731283031862</v>
+        <v>17.2489975132689</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.41941997188746</v>
       </c>
       <c r="M22">
-        <v>15.38291766392086</v>
+        <v>12.37729197136077</v>
       </c>
       <c r="N22">
-        <v>10.49575241917685</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.04524237185847</v>
       </c>
       <c r="P22">
-        <v>12.55424434887878</v>
+        <v>10.49567970772027</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.24377352299378</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.93838731568971</v>
+        <v>18.06204957875591</v>
       </c>
       <c r="C23">
-        <v>9.153200599636122</v>
+        <v>9.290188943737487</v>
       </c>
       <c r="D23">
-        <v>5.547638313514909</v>
+        <v>5.815232849659406</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.97033500476515</v>
+        <v>23.85005301765058</v>
       </c>
       <c r="G23">
-        <v>35.53647996305266</v>
+        <v>34.59407708997777</v>
       </c>
       <c r="H23">
-        <v>1.76646599379988</v>
+        <v>1.777083208050522</v>
       </c>
       <c r="I23">
-        <v>2.655716939646231</v>
+        <v>2.673641204477584</v>
       </c>
       <c r="J23">
-        <v>11.32584018073138</v>
+        <v>9.869339025287969</v>
       </c>
       <c r="K23">
-        <v>19.03706522943411</v>
+        <v>17.31227128337055</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.52335642650281</v>
       </c>
       <c r="M23">
-        <v>15.11410912938036</v>
+        <v>12.34040431173072</v>
       </c>
       <c r="N23">
-        <v>10.34635533684413</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.83437478250406</v>
       </c>
       <c r="P23">
-        <v>12.61988701032977</v>
+        <v>10.35225188528871</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.3223486126881</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.58425522392757</v>
+        <v>16.84225243358286</v>
       </c>
       <c r="C24">
-        <v>8.65330025140233</v>
+        <v>8.842540229209716</v>
       </c>
       <c r="D24">
-        <v>5.378654213001603</v>
+        <v>5.527626965131841</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.90484254396124</v>
+        <v>23.44121671133934</v>
       </c>
       <c r="G24">
-        <v>34.00612056892558</v>
+        <v>31.4330048125632</v>
       </c>
       <c r="H24">
-        <v>1.680928241031681</v>
+        <v>1.631753874566216</v>
       </c>
       <c r="I24">
-        <v>2.606500471294175</v>
+        <v>2.555702782453348</v>
       </c>
       <c r="J24">
-        <v>11.16333108487413</v>
+        <v>10.85408527502572</v>
       </c>
       <c r="K24">
-        <v>18.69577086303791</v>
+        <v>17.38186231323922</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.80304789506799</v>
       </c>
       <c r="M24">
-        <v>14.04762866771693</v>
+        <v>12.07262134735321</v>
       </c>
       <c r="N24">
-        <v>9.760037793976084</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.92736610255055</v>
       </c>
       <c r="P24">
-        <v>12.86285362736371</v>
+        <v>9.787554281687752</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.60341456074197</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.00076646400359</v>
+        <v>15.35183735042628</v>
       </c>
       <c r="C25">
-        <v>8.09180052672013</v>
+        <v>8.174543260429539</v>
       </c>
       <c r="D25">
-        <v>5.187731946190162</v>
+        <v>5.278649768285869</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.7502404347185</v>
+        <v>22.51788292239459</v>
       </c>
       <c r="G25">
-        <v>32.3416305868098</v>
+        <v>29.96129147078555</v>
       </c>
       <c r="H25">
-        <v>2.053868960727802</v>
+        <v>1.973094883713405</v>
       </c>
       <c r="I25">
-        <v>2.919898984830864</v>
+        <v>2.829163616334026</v>
       </c>
       <c r="J25">
-        <v>11.00086835259132</v>
+        <v>10.80695244362923</v>
       </c>
       <c r="K25">
-        <v>18.33938816371842</v>
+        <v>17.20627070404668</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.91964746776047</v>
       </c>
       <c r="M25">
-        <v>12.80237464146222</v>
+        <v>11.62136813557845</v>
       </c>
       <c r="N25">
-        <v>9.087029267670141</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.72394756613842</v>
       </c>
       <c r="P25">
-        <v>13.12856134381288</v>
+        <v>9.134130406028373</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.87561873268763</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
